--- a/AT3 Gantt Chart.xlsx
+++ b/AT3 Gantt Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wccnsweduau-my.sharepoint.com/personal/andrewdtran_wcc-student_nsw_edu_au/Documents/Documents/Programming/12 Software Engineering/AT3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="447" documentId="8_{539E3FA8-0683-4674-A523-05394B6FE126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54CD38FE-E281-44D0-83DA-82DF16E1243D}"/>
+  <xr:revisionPtr revIDLastSave="780" documentId="8_{539E3FA8-0683-4674-A523-05394B6FE126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C65EC2EA-A509-4D19-923E-33BC8E6ECFB7}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{94EB5B15-D4D5-4D23-A4E2-787500475EC9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="77">
   <si>
     <t>Software AT3 Gantt Chart Documentation</t>
   </si>
@@ -204,6 +204,69 @@
   </si>
   <si>
     <t>Holidays Week 2 | April 21st</t>
+  </si>
+  <si>
+    <t>Term 2 Week 1 | April 28th</t>
+  </si>
+  <si>
+    <t>Term 2 Week 2 | May 4th</t>
+  </si>
+  <si>
+    <t>Term 2 Week 3 | May 11th</t>
+  </si>
+  <si>
+    <t>Term 2 Week 4 | May 18th</t>
+  </si>
+  <si>
+    <t>Term 2 Week 5 | May 25th</t>
+  </si>
+  <si>
+    <t>Term 2 Week 6 | June 2nd</t>
+  </si>
+  <si>
+    <t>Term 2 Week 7 | June 9th</t>
+  </si>
+  <si>
+    <t>Term 2 Week 8 | June 10th</t>
+  </si>
+  <si>
+    <t>Term 2 Week 9 | June 23rd</t>
+  </si>
+  <si>
+    <t>Holidays Week 1 | June 30th</t>
+  </si>
+  <si>
+    <t>Holidays Week 2 | July 7th</t>
+  </si>
+  <si>
+    <t>Holidays Week 3 | July 14th</t>
+  </si>
+  <si>
+    <t>Term 3 Week 1 | July 21st</t>
+  </si>
+  <si>
+    <t>Build a UI</t>
+  </si>
+  <si>
+    <t>Core Features</t>
+  </si>
+  <si>
+    <t>Section 4: Testing and Maintaining</t>
+  </si>
+  <si>
+    <t>Acceptance Testing</t>
+  </si>
+  <si>
+    <t>Load Testing</t>
+  </si>
+  <si>
+    <t>User Survey</t>
+  </si>
+  <si>
+    <t>Section 5: Video Walkthrough</t>
+  </si>
+  <si>
+    <t>Record and Edit Video Walkthrough</t>
   </si>
 </sst>
 </file>
@@ -269,7 +332,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -350,6 +413,23 @@
         <fgColor theme="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -423,7 +503,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -431,8 +511,9 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -467,19 +548,28 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="6" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -494,26 +584,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -521,13 +602,42 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="6" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="40% - Accent4" xfId="4" builtinId="43"/>
     <cellStyle name="60% - Accent2" xfId="3" builtinId="36"/>
+    <cellStyle name="Accent2" xfId="7" builtinId="33"/>
     <cellStyle name="Accent5" xfId="5" builtinId="45"/>
     <cellStyle name="Accent6" xfId="6" builtinId="49"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -538,8 +648,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFF00"/>
       <color rgb="FFFFFF99"/>
-      <color rgb="FFFFFF00"/>
       <color rgb="FFFFCCCC"/>
     </mruColors>
   </colors>
@@ -871,10 +981,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5319FD18-DD5F-4191-91F3-32ABE9B693D7}">
-  <dimension ref="A1:CI50"/>
+  <dimension ref="A1:FX60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" zoomScale="52" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="AS19" sqref="AS19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -883,26 +993,26 @@
     <col min="2" max="3" width="10.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:87" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:180" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
       <c r="R1" s="15"/>
       <c r="S1" s="15"/>
       <c r="T1" s="15"/>
@@ -931,25 +1041,153 @@
       <c r="AQ1" s="15"/>
       <c r="AR1" s="15"/>
       <c r="AS1" s="15"/>
-    </row>
-    <row r="2" spans="1:87" x14ac:dyDescent="0.45">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
+      <c r="AT1" s="54"/>
+      <c r="AU1" s="54"/>
+      <c r="AV1" s="54"/>
+      <c r="AW1" s="54"/>
+      <c r="AX1" s="54"/>
+      <c r="AY1" s="54"/>
+      <c r="AZ1" s="54"/>
+      <c r="BA1" s="54"/>
+      <c r="BB1" s="54"/>
+      <c r="BC1" s="54"/>
+      <c r="BD1" s="54"/>
+      <c r="BE1" s="54"/>
+      <c r="BF1" s="54"/>
+      <c r="BG1" s="54"/>
+      <c r="BH1" s="54"/>
+      <c r="BI1" s="54"/>
+      <c r="BJ1" s="54"/>
+      <c r="BK1" s="54"/>
+      <c r="BL1" s="54"/>
+      <c r="BM1" s="54"/>
+      <c r="BN1" s="54"/>
+      <c r="BO1" s="54"/>
+      <c r="BP1" s="54"/>
+      <c r="BQ1" s="54"/>
+      <c r="BR1" s="54"/>
+      <c r="BS1" s="54"/>
+      <c r="BT1" s="54"/>
+      <c r="BU1" s="54"/>
+      <c r="BV1" s="54"/>
+      <c r="BW1" s="54"/>
+      <c r="BX1" s="54"/>
+      <c r="BY1" s="54"/>
+      <c r="BZ1" s="54"/>
+      <c r="CA1" s="54"/>
+      <c r="CB1" s="54"/>
+      <c r="CC1" s="54"/>
+      <c r="CD1" s="54"/>
+      <c r="CE1" s="54"/>
+      <c r="CF1" s="54"/>
+      <c r="CG1" s="54"/>
+      <c r="CH1" s="54"/>
+      <c r="CI1" s="54"/>
+      <c r="CJ1" s="54"/>
+      <c r="CK1" s="54"/>
+      <c r="CL1" s="54"/>
+      <c r="CM1" s="54"/>
+      <c r="CN1" s="54"/>
+      <c r="CO1" s="54"/>
+      <c r="CP1" s="54"/>
+      <c r="CQ1" s="54"/>
+      <c r="CR1" s="54"/>
+      <c r="CS1" s="54"/>
+      <c r="CT1" s="54"/>
+      <c r="CU1" s="54"/>
+      <c r="CV1" s="54"/>
+      <c r="CW1" s="54"/>
+      <c r="CX1" s="54"/>
+      <c r="CY1" s="54"/>
+      <c r="CZ1" s="54"/>
+      <c r="DA1" s="54"/>
+      <c r="DB1" s="54"/>
+      <c r="DC1" s="54"/>
+      <c r="DD1" s="54"/>
+      <c r="DE1" s="54"/>
+      <c r="DF1" s="54"/>
+      <c r="DG1" s="54"/>
+      <c r="DH1" s="54"/>
+      <c r="DI1" s="54"/>
+      <c r="DJ1" s="54"/>
+      <c r="DK1" s="54"/>
+      <c r="DL1" s="54"/>
+      <c r="DM1" s="54"/>
+      <c r="DN1" s="54"/>
+      <c r="DO1" s="54"/>
+      <c r="DP1" s="54"/>
+      <c r="DQ1" s="54"/>
+      <c r="DR1" s="54"/>
+      <c r="DS1" s="54"/>
+      <c r="DT1" s="54"/>
+      <c r="DU1" s="54"/>
+      <c r="DV1" s="54"/>
+      <c r="DW1" s="54"/>
+      <c r="DX1" s="54"/>
+      <c r="DY1" s="54"/>
+      <c r="DZ1" s="54"/>
+      <c r="EA1" s="54"/>
+      <c r="EB1" s="54"/>
+      <c r="EC1" s="54"/>
+      <c r="ED1" s="54"/>
+      <c r="EE1" s="54"/>
+      <c r="EF1" s="54"/>
+      <c r="EG1" s="54"/>
+      <c r="EH1" s="54"/>
+      <c r="EI1" s="54"/>
+      <c r="EJ1" s="54"/>
+      <c r="EK1" s="54"/>
+      <c r="EL1" s="54"/>
+      <c r="EM1" s="54"/>
+      <c r="EN1" s="54"/>
+      <c r="EO1" s="54"/>
+      <c r="EP1" s="54"/>
+      <c r="EQ1" s="54"/>
+      <c r="ER1" s="54"/>
+      <c r="ES1" s="54"/>
+      <c r="ET1" s="54"/>
+      <c r="EU1" s="54"/>
+      <c r="EV1" s="54"/>
+      <c r="EW1" s="54"/>
+      <c r="EX1" s="54"/>
+      <c r="EY1" s="54"/>
+      <c r="EZ1" s="54"/>
+      <c r="FA1" s="54"/>
+      <c r="FB1" s="54"/>
+      <c r="FC1" s="54"/>
+      <c r="FD1" s="54"/>
+      <c r="FE1" s="54"/>
+      <c r="FF1" s="54"/>
+      <c r="FG1" s="54"/>
+      <c r="FH1" s="54"/>
+      <c r="FI1" s="54"/>
+      <c r="FJ1" s="54"/>
+      <c r="FK1" s="54"/>
+      <c r="FL1" s="54"/>
+      <c r="FM1" s="54"/>
+      <c r="FN1" s="54"/>
+      <c r="FO1" s="54"/>
+      <c r="FP1" s="54"/>
+      <c r="FQ1" s="54"/>
+    </row>
+    <row r="2" spans="1:180" x14ac:dyDescent="0.45">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
       <c r="R2" s="15"/>
       <c r="S2" s="15"/>
       <c r="T2" s="15"/>
@@ -978,8 +1216,136 @@
       <c r="AQ2" s="15"/>
       <c r="AR2" s="15"/>
       <c r="AS2" s="15"/>
-    </row>
-    <row r="3" spans="1:87" x14ac:dyDescent="0.45">
+      <c r="AT2" s="54"/>
+      <c r="AU2" s="54"/>
+      <c r="AV2" s="54"/>
+      <c r="AW2" s="54"/>
+      <c r="AX2" s="54"/>
+      <c r="AY2" s="54"/>
+      <c r="AZ2" s="54"/>
+      <c r="BA2" s="54"/>
+      <c r="BB2" s="54"/>
+      <c r="BC2" s="54"/>
+      <c r="BD2" s="54"/>
+      <c r="BE2" s="54"/>
+      <c r="BF2" s="54"/>
+      <c r="BG2" s="54"/>
+      <c r="BH2" s="54"/>
+      <c r="BI2" s="54"/>
+      <c r="BJ2" s="54"/>
+      <c r="BK2" s="54"/>
+      <c r="BL2" s="54"/>
+      <c r="BM2" s="54"/>
+      <c r="BN2" s="54"/>
+      <c r="BO2" s="54"/>
+      <c r="BP2" s="54"/>
+      <c r="BQ2" s="54"/>
+      <c r="BR2" s="54"/>
+      <c r="BS2" s="54"/>
+      <c r="BT2" s="54"/>
+      <c r="BU2" s="54"/>
+      <c r="BV2" s="54"/>
+      <c r="BW2" s="54"/>
+      <c r="BX2" s="54"/>
+      <c r="BY2" s="54"/>
+      <c r="BZ2" s="54"/>
+      <c r="CA2" s="54"/>
+      <c r="CB2" s="54"/>
+      <c r="CC2" s="54"/>
+      <c r="CD2" s="54"/>
+      <c r="CE2" s="54"/>
+      <c r="CF2" s="54"/>
+      <c r="CG2" s="54"/>
+      <c r="CH2" s="54"/>
+      <c r="CI2" s="54"/>
+      <c r="CJ2" s="54"/>
+      <c r="CK2" s="54"/>
+      <c r="CL2" s="54"/>
+      <c r="CM2" s="54"/>
+      <c r="CN2" s="54"/>
+      <c r="CO2" s="54"/>
+      <c r="CP2" s="54"/>
+      <c r="CQ2" s="54"/>
+      <c r="CR2" s="54"/>
+      <c r="CS2" s="54"/>
+      <c r="CT2" s="54"/>
+      <c r="CU2" s="54"/>
+      <c r="CV2" s="54"/>
+      <c r="CW2" s="54"/>
+      <c r="CX2" s="54"/>
+      <c r="CY2" s="54"/>
+      <c r="CZ2" s="54"/>
+      <c r="DA2" s="54"/>
+      <c r="DB2" s="54"/>
+      <c r="DC2" s="54"/>
+      <c r="DD2" s="54"/>
+      <c r="DE2" s="54"/>
+      <c r="DF2" s="54"/>
+      <c r="DG2" s="54"/>
+      <c r="DH2" s="54"/>
+      <c r="DI2" s="54"/>
+      <c r="DJ2" s="54"/>
+      <c r="DK2" s="54"/>
+      <c r="DL2" s="54"/>
+      <c r="DM2" s="54"/>
+      <c r="DN2" s="54"/>
+      <c r="DO2" s="54"/>
+      <c r="DP2" s="54"/>
+      <c r="DQ2" s="54"/>
+      <c r="DR2" s="54"/>
+      <c r="DS2" s="54"/>
+      <c r="DT2" s="54"/>
+      <c r="DU2" s="54"/>
+      <c r="DV2" s="54"/>
+      <c r="DW2" s="54"/>
+      <c r="DX2" s="54"/>
+      <c r="DY2" s="54"/>
+      <c r="DZ2" s="54"/>
+      <c r="EA2" s="54"/>
+      <c r="EB2" s="54"/>
+      <c r="EC2" s="54"/>
+      <c r="ED2" s="54"/>
+      <c r="EE2" s="54"/>
+      <c r="EF2" s="54"/>
+      <c r="EG2" s="54"/>
+      <c r="EH2" s="54"/>
+      <c r="EI2" s="54"/>
+      <c r="EJ2" s="54"/>
+      <c r="EK2" s="54"/>
+      <c r="EL2" s="54"/>
+      <c r="EM2" s="54"/>
+      <c r="EN2" s="54"/>
+      <c r="EO2" s="54"/>
+      <c r="EP2" s="54"/>
+      <c r="EQ2" s="54"/>
+      <c r="ER2" s="54"/>
+      <c r="ES2" s="54"/>
+      <c r="ET2" s="54"/>
+      <c r="EU2" s="54"/>
+      <c r="EV2" s="54"/>
+      <c r="EW2" s="54"/>
+      <c r="EX2" s="54"/>
+      <c r="EY2" s="54"/>
+      <c r="EZ2" s="54"/>
+      <c r="FA2" s="54"/>
+      <c r="FB2" s="54"/>
+      <c r="FC2" s="54"/>
+      <c r="FD2" s="54"/>
+      <c r="FE2" s="54"/>
+      <c r="FF2" s="54"/>
+      <c r="FG2" s="54"/>
+      <c r="FH2" s="54"/>
+      <c r="FI2" s="54"/>
+      <c r="FJ2" s="54"/>
+      <c r="FK2" s="54"/>
+      <c r="FL2" s="54"/>
+      <c r="FM2" s="54"/>
+      <c r="FN2" s="54"/>
+      <c r="FO2" s="54"/>
+      <c r="FP2" s="54"/>
+      <c r="FQ2" s="54"/>
+    </row>
+    <row r="3" spans="1:180" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1001,98 +1367,210 @@
       <c r="O3" s="39"/>
       <c r="P3" s="39"/>
       <c r="Q3" s="39"/>
-      <c r="R3" s="32" t="s">
+      <c r="R3" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32"/>
-      <c r="V3" s="32"/>
-      <c r="W3" s="32"/>
-      <c r="X3" s="32"/>
-      <c r="Y3" s="31" t="s">
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="37"/>
+      <c r="Y3" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="Z3" s="31"/>
-      <c r="AA3" s="31"/>
-      <c r="AB3" s="31"/>
-      <c r="AC3" s="31"/>
-      <c r="AD3" s="31"/>
-      <c r="AE3" s="31"/>
-      <c r="AF3" s="32" t="s">
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="36"/>
+      <c r="AE3" s="36"/>
+      <c r="AF3" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="AG3" s="32"/>
-      <c r="AH3" s="32"/>
-      <c r="AI3" s="32"/>
-      <c r="AJ3" s="32"/>
-      <c r="AK3" s="32"/>
-      <c r="AL3" s="32"/>
-      <c r="AM3" s="22" t="s">
+      <c r="AG3" s="37"/>
+      <c r="AH3" s="37"/>
+      <c r="AI3" s="37"/>
+      <c r="AJ3" s="37"/>
+      <c r="AK3" s="37"/>
+      <c r="AL3" s="37"/>
+      <c r="AM3" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="AN3" s="22"/>
-      <c r="AO3" s="22"/>
-      <c r="AP3" s="22"/>
-      <c r="AQ3" s="22"/>
-      <c r="AR3" s="22"/>
-      <c r="AS3" s="22"/>
-      <c r="AT3" s="23" t="s">
+      <c r="AN3" s="35"/>
+      <c r="AO3" s="35"/>
+      <c r="AP3" s="35"/>
+      <c r="AQ3" s="35"/>
+      <c r="AR3" s="35"/>
+      <c r="AS3" s="35"/>
+      <c r="AT3" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="AU3" s="23"/>
-      <c r="AV3" s="23"/>
-      <c r="AW3" s="23"/>
-      <c r="AX3" s="23"/>
-      <c r="AY3" s="23"/>
-      <c r="AZ3" s="23"/>
-      <c r="BA3" s="22" t="s">
+      <c r="AU3" s="34"/>
+      <c r="AV3" s="34"/>
+      <c r="AW3" s="34"/>
+      <c r="AX3" s="34"/>
+      <c r="AY3" s="34"/>
+      <c r="AZ3" s="34"/>
+      <c r="BA3" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="BB3" s="22"/>
-      <c r="BC3" s="22"/>
-      <c r="BD3" s="22"/>
-      <c r="BE3" s="22"/>
-      <c r="BF3" s="22"/>
-      <c r="BG3" s="22"/>
-      <c r="BH3" s="23" t="s">
+      <c r="BB3" s="35"/>
+      <c r="BC3" s="35"/>
+      <c r="BD3" s="35"/>
+      <c r="BE3" s="35"/>
+      <c r="BF3" s="35"/>
+      <c r="BG3" s="35"/>
+      <c r="BH3" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="BI3" s="23"/>
-      <c r="BJ3" s="23"/>
-      <c r="BK3" s="23"/>
-      <c r="BL3" s="23"/>
-      <c r="BM3" s="23"/>
-      <c r="BN3" s="23"/>
-      <c r="BO3" s="22" t="s">
+      <c r="BI3" s="34"/>
+      <c r="BJ3" s="34"/>
+      <c r="BK3" s="34"/>
+      <c r="BL3" s="34"/>
+      <c r="BM3" s="34"/>
+      <c r="BN3" s="34"/>
+      <c r="BO3" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="BP3" s="22"/>
-      <c r="BQ3" s="22"/>
-      <c r="BR3" s="22"/>
-      <c r="BS3" s="22"/>
-      <c r="BT3" s="22"/>
-      <c r="BU3" s="22"/>
-      <c r="BV3" s="23" t="s">
+      <c r="BP3" s="35"/>
+      <c r="BQ3" s="35"/>
+      <c r="BR3" s="35"/>
+      <c r="BS3" s="35"/>
+      <c r="BT3" s="35"/>
+      <c r="BU3" s="35"/>
+      <c r="BV3" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="BW3" s="23"/>
-      <c r="BX3" s="23"/>
-      <c r="BY3" s="23"/>
-      <c r="BZ3" s="23"/>
-      <c r="CA3" s="23"/>
-      <c r="CB3" s="23"/>
-      <c r="CC3" s="22" t="s">
+      <c r="BW3" s="34"/>
+      <c r="BX3" s="34"/>
+      <c r="BY3" s="34"/>
+      <c r="BZ3" s="34"/>
+      <c r="CA3" s="34"/>
+      <c r="CB3" s="34"/>
+      <c r="CC3" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="CD3" s="22"/>
-      <c r="CE3" s="22"/>
-      <c r="CF3" s="22"/>
-      <c r="CG3" s="22"/>
-      <c r="CH3" s="22"/>
-      <c r="CI3" s="22"/>
-    </row>
-    <row r="4" spans="1:87" x14ac:dyDescent="0.45">
+      <c r="CD3" s="35"/>
+      <c r="CE3" s="35"/>
+      <c r="CF3" s="35"/>
+      <c r="CG3" s="35"/>
+      <c r="CH3" s="35"/>
+      <c r="CI3" s="35"/>
+      <c r="CJ3" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="CK3" s="40"/>
+      <c r="CL3" s="40"/>
+      <c r="CM3" s="40"/>
+      <c r="CN3" s="40"/>
+      <c r="CO3" s="40"/>
+      <c r="CP3" s="40"/>
+      <c r="CQ3" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="CR3" s="41"/>
+      <c r="CS3" s="41"/>
+      <c r="CT3" s="41"/>
+      <c r="CU3" s="41"/>
+      <c r="CV3" s="41"/>
+      <c r="CW3" s="41"/>
+      <c r="CX3" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="CY3" s="43"/>
+      <c r="CZ3" s="43"/>
+      <c r="DA3" s="43"/>
+      <c r="DB3" s="43"/>
+      <c r="DC3" s="43"/>
+      <c r="DD3" s="43"/>
+      <c r="DE3" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="DF3" s="41"/>
+      <c r="DG3" s="41"/>
+      <c r="DH3" s="41"/>
+      <c r="DI3" s="41"/>
+      <c r="DJ3" s="41"/>
+      <c r="DK3" s="41"/>
+      <c r="DL3" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="DM3" s="43"/>
+      <c r="DN3" s="43"/>
+      <c r="DO3" s="43"/>
+      <c r="DP3" s="43"/>
+      <c r="DQ3" s="43"/>
+      <c r="DR3" s="43"/>
+      <c r="DS3" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="DT3" s="41"/>
+      <c r="DU3" s="41"/>
+      <c r="DV3" s="41"/>
+      <c r="DW3" s="41"/>
+      <c r="DX3" s="41"/>
+      <c r="DY3" s="41"/>
+      <c r="DZ3" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="EA3" s="43"/>
+      <c r="EB3" s="43"/>
+      <c r="EC3" s="43"/>
+      <c r="ED3" s="43"/>
+      <c r="EE3" s="43"/>
+      <c r="EF3" s="43"/>
+      <c r="EG3" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="EH3" s="41"/>
+      <c r="EI3" s="41"/>
+      <c r="EJ3" s="41"/>
+      <c r="EK3" s="41"/>
+      <c r="EL3" s="41"/>
+      <c r="EM3" s="41"/>
+      <c r="EN3" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="EO3" s="43"/>
+      <c r="EP3" s="43"/>
+      <c r="EQ3" s="43"/>
+      <c r="ER3" s="43"/>
+      <c r="ES3" s="43"/>
+      <c r="ET3" s="43"/>
+      <c r="EU3" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="EV3" s="41"/>
+      <c r="EW3" s="41"/>
+      <c r="EX3" s="41"/>
+      <c r="EY3" s="41"/>
+      <c r="EZ3" s="41"/>
+      <c r="FA3" s="41"/>
+      <c r="FB3" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="FC3" s="43"/>
+      <c r="FD3" s="43"/>
+      <c r="FE3" s="43"/>
+      <c r="FF3" s="43"/>
+      <c r="FG3" s="43"/>
+      <c r="FH3" s="43"/>
+      <c r="FI3" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="FJ3" s="41"/>
+      <c r="FK3" s="41"/>
+      <c r="FL3" s="41"/>
+      <c r="FM3" s="41"/>
+      <c r="FN3" s="41"/>
+      <c r="FO3" s="41"/>
+      <c r="FP3" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="FQ3" s="46"/>
+    </row>
+    <row r="4" spans="1:180" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1348,8 +1826,273 @@
       <c r="CI4" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:87" x14ac:dyDescent="0.45">
+      <c r="CJ4" s="1">
+        <v>28</v>
+      </c>
+      <c r="CK4" s="1">
+        <v>29</v>
+      </c>
+      <c r="CL4" s="1">
+        <v>30</v>
+      </c>
+      <c r="CM4" s="1">
+        <v>1</v>
+      </c>
+      <c r="CN4" s="1">
+        <v>2</v>
+      </c>
+      <c r="CO4" s="1">
+        <v>3</v>
+      </c>
+      <c r="CP4" s="12">
+        <v>4</v>
+      </c>
+      <c r="CQ4" s="2">
+        <v>5</v>
+      </c>
+      <c r="CR4" s="2">
+        <v>6</v>
+      </c>
+      <c r="CS4" s="2">
+        <v>7</v>
+      </c>
+      <c r="CT4" s="2">
+        <v>8</v>
+      </c>
+      <c r="CU4" s="2">
+        <v>9</v>
+      </c>
+      <c r="CV4" s="2">
+        <v>10</v>
+      </c>
+      <c r="CW4" s="2">
+        <v>11</v>
+      </c>
+      <c r="CX4" s="12">
+        <v>12</v>
+      </c>
+      <c r="CY4" s="12">
+        <v>13</v>
+      </c>
+      <c r="CZ4" s="12">
+        <v>14</v>
+      </c>
+      <c r="DA4" s="12">
+        <v>15</v>
+      </c>
+      <c r="DB4" s="12">
+        <v>16</v>
+      </c>
+      <c r="DC4" s="12">
+        <v>17</v>
+      </c>
+      <c r="DD4" s="12">
+        <v>18</v>
+      </c>
+      <c r="DE4" s="2">
+        <v>19</v>
+      </c>
+      <c r="DF4" s="2">
+        <v>20</v>
+      </c>
+      <c r="DG4" s="2">
+        <v>21</v>
+      </c>
+      <c r="DH4" s="2">
+        <v>22</v>
+      </c>
+      <c r="DI4" s="2">
+        <v>23</v>
+      </c>
+      <c r="DJ4" s="2">
+        <v>24</v>
+      </c>
+      <c r="DK4" s="2">
+        <v>25</v>
+      </c>
+      <c r="DL4" s="12">
+        <v>26</v>
+      </c>
+      <c r="DM4" s="12">
+        <v>27</v>
+      </c>
+      <c r="DN4" s="12">
+        <v>28</v>
+      </c>
+      <c r="DO4" s="12">
+        <v>29</v>
+      </c>
+      <c r="DP4" s="12">
+        <v>30</v>
+      </c>
+      <c r="DQ4" s="12">
+        <v>31</v>
+      </c>
+      <c r="DR4" s="12">
+        <v>1</v>
+      </c>
+      <c r="DS4" s="2">
+        <v>2</v>
+      </c>
+      <c r="DT4" s="2">
+        <v>3</v>
+      </c>
+      <c r="DU4" s="2">
+        <v>4</v>
+      </c>
+      <c r="DV4" s="2">
+        <v>5</v>
+      </c>
+      <c r="DW4" s="2">
+        <v>6</v>
+      </c>
+      <c r="DX4" s="2">
+        <v>7</v>
+      </c>
+      <c r="DY4" s="2">
+        <v>8</v>
+      </c>
+      <c r="DZ4" s="12">
+        <v>9</v>
+      </c>
+      <c r="EA4" s="12">
+        <v>10</v>
+      </c>
+      <c r="EB4" s="12">
+        <v>11</v>
+      </c>
+      <c r="EC4" s="12">
+        <v>12</v>
+      </c>
+      <c r="ED4" s="12">
+        <v>13</v>
+      </c>
+      <c r="EE4" s="12">
+        <v>14</v>
+      </c>
+      <c r="EF4" s="12">
+        <v>15</v>
+      </c>
+      <c r="EG4" s="2">
+        <v>16</v>
+      </c>
+      <c r="EH4" s="2">
+        <v>17</v>
+      </c>
+      <c r="EI4" s="2">
+        <v>18</v>
+      </c>
+      <c r="EJ4" s="2">
+        <v>19</v>
+      </c>
+      <c r="EK4" s="2">
+        <v>20</v>
+      </c>
+      <c r="EL4" s="2">
+        <v>21</v>
+      </c>
+      <c r="EM4" s="2">
+        <v>22</v>
+      </c>
+      <c r="EN4" s="12">
+        <v>23</v>
+      </c>
+      <c r="EO4" s="12">
+        <v>24</v>
+      </c>
+      <c r="EP4" s="12">
+        <v>25</v>
+      </c>
+      <c r="EQ4" s="12">
+        <v>26</v>
+      </c>
+      <c r="ER4" s="12">
+        <v>27</v>
+      </c>
+      <c r="ES4" s="12">
+        <v>28</v>
+      </c>
+      <c r="ET4" s="12">
+        <v>29</v>
+      </c>
+      <c r="EU4" s="2">
+        <v>30</v>
+      </c>
+      <c r="EV4" s="2">
+        <v>1</v>
+      </c>
+      <c r="EW4" s="2">
+        <v>2</v>
+      </c>
+      <c r="EX4" s="2">
+        <v>3</v>
+      </c>
+      <c r="EY4" s="2">
+        <v>4</v>
+      </c>
+      <c r="EZ4" s="2">
+        <v>5</v>
+      </c>
+      <c r="FA4" s="2">
+        <v>6</v>
+      </c>
+      <c r="FB4" s="12">
+        <v>7</v>
+      </c>
+      <c r="FC4" s="12">
+        <v>8</v>
+      </c>
+      <c r="FD4" s="12">
+        <v>9</v>
+      </c>
+      <c r="FE4" s="12">
+        <v>10</v>
+      </c>
+      <c r="FF4" s="12">
+        <v>11</v>
+      </c>
+      <c r="FG4" s="12">
+        <v>12</v>
+      </c>
+      <c r="FH4" s="12">
+        <v>13</v>
+      </c>
+      <c r="FI4" s="2">
+        <v>14</v>
+      </c>
+      <c r="FJ4" s="2">
+        <v>15</v>
+      </c>
+      <c r="FK4" s="2">
+        <v>16</v>
+      </c>
+      <c r="FL4" s="2">
+        <v>17</v>
+      </c>
+      <c r="FM4" s="2">
+        <v>18</v>
+      </c>
+      <c r="FN4" s="2">
+        <v>19</v>
+      </c>
+      <c r="FO4" s="2">
+        <v>20</v>
+      </c>
+      <c r="FP4" s="12">
+        <v>21</v>
+      </c>
+      <c r="FQ4" s="12">
+        <v>22</v>
+      </c>
+      <c r="FR4" s="45"/>
+      <c r="FS4" s="45"/>
+      <c r="FT4" s="45"/>
+      <c r="FU4" s="45"/>
+      <c r="FV4" s="45"/>
+      <c r="FW4" s="45"/>
+      <c r="FX4" s="45"/>
+    </row>
+    <row r="5" spans="1:180" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1605,9 +2348,267 @@
       <c r="CI5" s="11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:87" x14ac:dyDescent="0.45">
-      <c r="A7" s="36" t="s">
+      <c r="CJ5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="CK5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="CL5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="CM5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="CN5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="CO5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="CP5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="CQ5" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="CR5" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="CS5" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="CT5" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="CU5" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="CV5" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="CW5" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="CX5" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="CY5" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="CZ5" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="DA5" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="DB5" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="DC5" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="DD5" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="DE5" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="DF5" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="DG5" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="DH5" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="DI5" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="DJ5" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="DK5" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="DL5" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="DM5" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="DN5" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="DO5" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="DP5" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="DQ5" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="DR5" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="DS5" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="DT5" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="DU5" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="DV5" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="DW5" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="DX5" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="DY5" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="DZ5" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="EA5" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="EB5" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="EC5" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="ED5" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="EE5" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="EF5" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="EG5" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="EH5" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="EI5" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="EJ5" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="EK5" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="EL5" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="EM5" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="EN5" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="EO5" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="EP5" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="EQ5" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="ER5" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="ES5" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="ET5" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="EU5" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="EV5" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="EW5" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="EX5" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="EY5" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="EZ5" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="FA5" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="FB5" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="FC5" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="FD5" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="FE5" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="FF5" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="FG5" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="FH5" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="FI5" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="FJ5" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="FK5" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="FL5" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="FM5" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="FN5" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="FO5" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="FP5" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="FQ5" s="44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:180" x14ac:dyDescent="0.45">
+      <c r="A7" s="24" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -1615,14 +2616,14 @@
       </c>
       <c r="C7" s="5"/>
     </row>
-    <row r="8" spans="1:87" x14ac:dyDescent="0.45">
-      <c r="A8" s="36"/>
+    <row r="8" spans="1:180" x14ac:dyDescent="0.45">
+      <c r="A8" s="24"/>
       <c r="B8" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="4"/>
     </row>
-    <row r="10" spans="1:87" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:180" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
@@ -1674,8 +2675,136 @@
       <c r="AQ10" s="3"/>
       <c r="AR10" s="3"/>
       <c r="AS10" s="3"/>
-    </row>
-    <row r="11" spans="1:87" x14ac:dyDescent="0.45">
+      <c r="AT10" s="3"/>
+      <c r="AU10" s="3"/>
+      <c r="AV10" s="3"/>
+      <c r="AW10" s="3"/>
+      <c r="AX10" s="3"/>
+      <c r="AY10" s="3"/>
+      <c r="AZ10" s="3"/>
+      <c r="BA10" s="3"/>
+      <c r="BB10" s="3"/>
+      <c r="BC10" s="3"/>
+      <c r="BD10" s="3"/>
+      <c r="BE10" s="3"/>
+      <c r="BF10" s="3"/>
+      <c r="BG10" s="3"/>
+      <c r="BH10" s="3"/>
+      <c r="BI10" s="3"/>
+      <c r="BJ10" s="3"/>
+      <c r="BK10" s="3"/>
+      <c r="BL10" s="3"/>
+      <c r="BM10" s="3"/>
+      <c r="BN10" s="3"/>
+      <c r="BO10" s="3"/>
+      <c r="BP10" s="3"/>
+      <c r="BQ10" s="3"/>
+      <c r="BR10" s="3"/>
+      <c r="BS10" s="3"/>
+      <c r="BT10" s="3"/>
+      <c r="BU10" s="3"/>
+      <c r="BV10" s="3"/>
+      <c r="BW10" s="3"/>
+      <c r="BX10" s="3"/>
+      <c r="BY10" s="3"/>
+      <c r="BZ10" s="3"/>
+      <c r="CA10" s="3"/>
+      <c r="CB10" s="3"/>
+      <c r="CC10" s="3"/>
+      <c r="CD10" s="3"/>
+      <c r="CE10" s="3"/>
+      <c r="CF10" s="3"/>
+      <c r="CG10" s="3"/>
+      <c r="CH10" s="3"/>
+      <c r="CI10" s="3"/>
+      <c r="CJ10" s="3"/>
+      <c r="CK10" s="3"/>
+      <c r="CL10" s="3"/>
+      <c r="CM10" s="3"/>
+      <c r="CN10" s="3"/>
+      <c r="CO10" s="3"/>
+      <c r="CP10" s="3"/>
+      <c r="CQ10" s="3"/>
+      <c r="CR10" s="3"/>
+      <c r="CS10" s="3"/>
+      <c r="CT10" s="3"/>
+      <c r="CU10" s="3"/>
+      <c r="CV10" s="3"/>
+      <c r="CW10" s="3"/>
+      <c r="CX10" s="3"/>
+      <c r="CY10" s="3"/>
+      <c r="CZ10" s="3"/>
+      <c r="DA10" s="3"/>
+      <c r="DB10" s="3"/>
+      <c r="DC10" s="3"/>
+      <c r="DD10" s="3"/>
+      <c r="DE10" s="3"/>
+      <c r="DF10" s="3"/>
+      <c r="DG10" s="3"/>
+      <c r="DH10" s="3"/>
+      <c r="DI10" s="3"/>
+      <c r="DJ10" s="3"/>
+      <c r="DK10" s="3"/>
+      <c r="DL10" s="3"/>
+      <c r="DM10" s="3"/>
+      <c r="DN10" s="3"/>
+      <c r="DO10" s="3"/>
+      <c r="DP10" s="3"/>
+      <c r="DQ10" s="3"/>
+      <c r="DR10" s="3"/>
+      <c r="DS10" s="3"/>
+      <c r="DT10" s="3"/>
+      <c r="DU10" s="3"/>
+      <c r="DV10" s="3"/>
+      <c r="DW10" s="3"/>
+      <c r="DX10" s="3"/>
+      <c r="DY10" s="3"/>
+      <c r="DZ10" s="3"/>
+      <c r="EA10" s="3"/>
+      <c r="EB10" s="3"/>
+      <c r="EC10" s="3"/>
+      <c r="ED10" s="3"/>
+      <c r="EE10" s="3"/>
+      <c r="EF10" s="3"/>
+      <c r="EG10" s="3"/>
+      <c r="EH10" s="3"/>
+      <c r="EI10" s="3"/>
+      <c r="EJ10" s="3"/>
+      <c r="EK10" s="3"/>
+      <c r="EL10" s="3"/>
+      <c r="EM10" s="3"/>
+      <c r="EN10" s="3"/>
+      <c r="EO10" s="3"/>
+      <c r="EP10" s="3"/>
+      <c r="EQ10" s="3"/>
+      <c r="ER10" s="3"/>
+      <c r="ES10" s="3"/>
+      <c r="ET10" s="3"/>
+      <c r="EU10" s="3"/>
+      <c r="EV10" s="3"/>
+      <c r="EW10" s="3"/>
+      <c r="EX10" s="3"/>
+      <c r="EY10" s="3"/>
+      <c r="EZ10" s="3"/>
+      <c r="FA10" s="3"/>
+      <c r="FB10" s="3"/>
+      <c r="FC10" s="3"/>
+      <c r="FD10" s="3"/>
+      <c r="FE10" s="3"/>
+      <c r="FF10" s="3"/>
+      <c r="FG10" s="3"/>
+      <c r="FH10" s="3"/>
+      <c r="FI10" s="3"/>
+      <c r="FJ10" s="3"/>
+      <c r="FK10" s="3"/>
+      <c r="FL10" s="3"/>
+      <c r="FM10" s="3"/>
+      <c r="FN10" s="3"/>
+      <c r="FO10" s="3"/>
+      <c r="FP10" s="3"/>
+      <c r="FQ10" s="3"/>
+    </row>
+    <row r="11" spans="1:180" x14ac:dyDescent="0.45">
       <c r="A11" s="7" t="s">
         <v>19</v>
       </c>
@@ -1723,35 +2852,163 @@
       <c r="AQ11" s="14"/>
       <c r="AR11" s="14"/>
       <c r="AS11" s="14"/>
-    </row>
-    <row r="12" spans="1:87" x14ac:dyDescent="0.45">
-      <c r="A12" s="35" t="s">
+      <c r="AT11" s="6"/>
+      <c r="AU11" s="6"/>
+      <c r="AV11" s="6"/>
+      <c r="AW11" s="6"/>
+      <c r="AX11" s="6"/>
+      <c r="AY11" s="6"/>
+      <c r="AZ11" s="6"/>
+      <c r="BA11" s="6"/>
+      <c r="BB11" s="6"/>
+      <c r="BC11" s="6"/>
+      <c r="BD11" s="6"/>
+      <c r="BE11" s="6"/>
+      <c r="BF11" s="6"/>
+      <c r="BG11" s="6"/>
+      <c r="BH11" s="6"/>
+      <c r="BI11" s="6"/>
+      <c r="BJ11" s="6"/>
+      <c r="BK11" s="6"/>
+      <c r="BL11" s="6"/>
+      <c r="BM11" s="6"/>
+      <c r="BN11" s="6"/>
+      <c r="BO11" s="6"/>
+      <c r="BP11" s="6"/>
+      <c r="BQ11" s="6"/>
+      <c r="BR11" s="6"/>
+      <c r="BS11" s="6"/>
+      <c r="BT11" s="6"/>
+      <c r="BU11" s="6"/>
+      <c r="BV11" s="6"/>
+      <c r="BW11" s="6"/>
+      <c r="BX11" s="6"/>
+      <c r="BY11" s="6"/>
+      <c r="BZ11" s="6"/>
+      <c r="CA11" s="6"/>
+      <c r="CB11" s="6"/>
+      <c r="CC11" s="6"/>
+      <c r="CD11" s="6"/>
+      <c r="CE11" s="6"/>
+      <c r="CF11" s="6"/>
+      <c r="CG11" s="6"/>
+      <c r="CH11" s="6"/>
+      <c r="CI11" s="6"/>
+      <c r="CJ11" s="6"/>
+      <c r="CK11" s="6"/>
+      <c r="CL11" s="6"/>
+      <c r="CM11" s="6"/>
+      <c r="CN11" s="6"/>
+      <c r="CO11" s="6"/>
+      <c r="CP11" s="6"/>
+      <c r="CQ11" s="6"/>
+      <c r="CR11" s="6"/>
+      <c r="CS11" s="6"/>
+      <c r="CT11" s="6"/>
+      <c r="CU11" s="6"/>
+      <c r="CV11" s="6"/>
+      <c r="CW11" s="6"/>
+      <c r="CX11" s="6"/>
+      <c r="CY11" s="6"/>
+      <c r="CZ11" s="6"/>
+      <c r="DA11" s="6"/>
+      <c r="DB11" s="6"/>
+      <c r="DC11" s="6"/>
+      <c r="DD11" s="6"/>
+      <c r="DE11" s="6"/>
+      <c r="DF11" s="6"/>
+      <c r="DG11" s="6"/>
+      <c r="DH11" s="6"/>
+      <c r="DI11" s="6"/>
+      <c r="DJ11" s="6"/>
+      <c r="DK11" s="6"/>
+      <c r="DL11" s="6"/>
+      <c r="DM11" s="6"/>
+      <c r="DN11" s="6"/>
+      <c r="DO11" s="6"/>
+      <c r="DP11" s="6"/>
+      <c r="DQ11" s="6"/>
+      <c r="DR11" s="6"/>
+      <c r="DS11" s="6"/>
+      <c r="DT11" s="6"/>
+      <c r="DU11" s="6"/>
+      <c r="DV11" s="6"/>
+      <c r="DW11" s="6"/>
+      <c r="DX11" s="6"/>
+      <c r="DY11" s="6"/>
+      <c r="DZ11" s="6"/>
+      <c r="EA11" s="6"/>
+      <c r="EB11" s="6"/>
+      <c r="EC11" s="6"/>
+      <c r="ED11" s="6"/>
+      <c r="EE11" s="6"/>
+      <c r="EF11" s="6"/>
+      <c r="EG11" s="6"/>
+      <c r="EH11" s="6"/>
+      <c r="EI11" s="6"/>
+      <c r="EJ11" s="6"/>
+      <c r="EK11" s="6"/>
+      <c r="EL11" s="6"/>
+      <c r="EM11" s="6"/>
+      <c r="EN11" s="6"/>
+      <c r="EO11" s="6"/>
+      <c r="EP11" s="6"/>
+      <c r="EQ11" s="6"/>
+      <c r="ER11" s="6"/>
+      <c r="ES11" s="6"/>
+      <c r="ET11" s="6"/>
+      <c r="EU11" s="6"/>
+      <c r="EV11" s="6"/>
+      <c r="EW11" s="6"/>
+      <c r="EX11" s="6"/>
+      <c r="EY11" s="6"/>
+      <c r="EZ11" s="6"/>
+      <c r="FA11" s="6"/>
+      <c r="FB11" s="6"/>
+      <c r="FC11" s="6"/>
+      <c r="FD11" s="6"/>
+      <c r="FE11" s="6"/>
+      <c r="FF11" s="6"/>
+      <c r="FG11" s="6"/>
+      <c r="FH11" s="6"/>
+      <c r="FI11" s="6"/>
+      <c r="FJ11" s="6"/>
+      <c r="FK11" s="6"/>
+      <c r="FL11" s="6"/>
+      <c r="FM11" s="6"/>
+      <c r="FN11" s="6"/>
+      <c r="FO11" s="6"/>
+      <c r="FP11" s="6"/>
+      <c r="FQ11" s="6"/>
+    </row>
+    <row r="12" spans="1:180" x14ac:dyDescent="0.45">
+      <c r="A12" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="34">
+      <c r="B12" s="23">
         <v>45691</v>
       </c>
-      <c r="C12" s="34">
+      <c r="C12" s="23">
         <v>45692</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:87" x14ac:dyDescent="0.45">
-      <c r="A13" s="35"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
+    <row r="13" spans="1:180" x14ac:dyDescent="0.45">
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:87" x14ac:dyDescent="0.45">
-      <c r="A14" s="37" t="s">
+    <row r="14" spans="1:180" x14ac:dyDescent="0.45">
+      <c r="A14" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="34">
+      <c r="B14" s="23">
         <v>45693</v>
       </c>
-      <c r="C14" s="34">
+      <c r="C14" s="23">
         <v>45697</v>
       </c>
       <c r="D14" s="5"/>
@@ -1759,10 +3016,10 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:87" x14ac:dyDescent="0.45">
-      <c r="A15" s="37"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
+    <row r="15" spans="1:180" x14ac:dyDescent="0.45">
+      <c r="A15" s="25"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -1771,14 +3028,14 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="1:87" x14ac:dyDescent="0.45">
-      <c r="A16" s="35" t="s">
+    <row r="16" spans="1:180" x14ac:dyDescent="0.45">
+      <c r="A16" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="34">
+      <c r="B16" s="23">
         <v>45693</v>
       </c>
-      <c r="C16" s="34">
+      <c r="C16" s="23">
         <v>45695</v>
       </c>
       <c r="F16" s="5"/>
@@ -1787,22 +3044,22 @@
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.45">
-      <c r="A17" s="35"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
+    <row r="17" spans="1:173" x14ac:dyDescent="0.45">
+      <c r="A17" s="22"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.45">
-      <c r="A18" s="35" t="s">
+    <row r="18" spans="1:173" x14ac:dyDescent="0.45">
+      <c r="A18" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="34">
+      <c r="B18" s="23">
         <v>45697</v>
       </c>
-      <c r="C18" s="34">
+      <c r="C18" s="23">
         <v>45702</v>
       </c>
       <c r="J18" s="5"/>
@@ -1812,10 +3069,10 @@
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
     </row>
-    <row r="19" spans="1:45" x14ac:dyDescent="0.45">
-      <c r="A19" s="35"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="35"/>
+    <row r="19" spans="1:173" x14ac:dyDescent="0.45">
+      <c r="A19" s="22"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="22"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
@@ -1823,24 +3080,24 @@
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
     </row>
-    <row r="20" spans="1:45" x14ac:dyDescent="0.45">
-      <c r="A20" s="35" t="s">
+    <row r="20" spans="1:173" x14ac:dyDescent="0.45">
+      <c r="A20" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="34">
+      <c r="B20" s="23">
         <v>45698</v>
       </c>
-      <c r="C20" s="34">
+      <c r="C20" s="23">
         <v>45703</v>
       </c>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
     </row>
-    <row r="21" spans="1:45" x14ac:dyDescent="0.45">
-      <c r="A21" s="35"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
+    <row r="21" spans="1:173" x14ac:dyDescent="0.45">
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
@@ -1848,25 +3105,25 @@
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
     </row>
-    <row r="22" spans="1:45" x14ac:dyDescent="0.45">
-      <c r="A22" s="35" t="s">
+    <row r="22" spans="1:173" x14ac:dyDescent="0.45">
+      <c r="A22" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="34">
+      <c r="B22" s="23">
         <v>45702</v>
       </c>
-      <c r="C22" s="34">
+      <c r="C22" s="23">
         <v>45702</v>
       </c>
       <c r="O22" s="5"/>
     </row>
-    <row r="23" spans="1:45" x14ac:dyDescent="0.45">
-      <c r="A23" s="35"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
+    <row r="23" spans="1:173" x14ac:dyDescent="0.45">
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
       <c r="O23" s="4"/>
     </row>
-    <row r="24" spans="1:45" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:173" x14ac:dyDescent="0.45">
       <c r="A24" s="10" t="s">
         <v>26</v>
       </c>
@@ -1914,25 +3171,153 @@
       <c r="AQ24" s="9"/>
       <c r="AR24" s="9"/>
       <c r="AS24" s="9"/>
-    </row>
-    <row r="25" spans="1:45" x14ac:dyDescent="0.45">
-      <c r="A25" s="35" t="s">
+      <c r="AT24" s="9"/>
+      <c r="AU24" s="9"/>
+      <c r="AV24" s="9"/>
+      <c r="AW24" s="9"/>
+      <c r="AX24" s="9"/>
+      <c r="AY24" s="9"/>
+      <c r="AZ24" s="9"/>
+      <c r="BA24" s="9"/>
+      <c r="BB24" s="9"/>
+      <c r="BC24" s="9"/>
+      <c r="BD24" s="9"/>
+      <c r="BE24" s="9"/>
+      <c r="BF24" s="9"/>
+      <c r="BG24" s="9"/>
+      <c r="BH24" s="9"/>
+      <c r="BI24" s="9"/>
+      <c r="BJ24" s="9"/>
+      <c r="BK24" s="9"/>
+      <c r="BL24" s="9"/>
+      <c r="BM24" s="9"/>
+      <c r="BN24" s="9"/>
+      <c r="BO24" s="9"/>
+      <c r="BP24" s="9"/>
+      <c r="BQ24" s="9"/>
+      <c r="BR24" s="9"/>
+      <c r="BS24" s="9"/>
+      <c r="BT24" s="9"/>
+      <c r="BU24" s="9"/>
+      <c r="BV24" s="9"/>
+      <c r="BW24" s="9"/>
+      <c r="BX24" s="9"/>
+      <c r="BY24" s="9"/>
+      <c r="BZ24" s="9"/>
+      <c r="CA24" s="9"/>
+      <c r="CB24" s="9"/>
+      <c r="CC24" s="9"/>
+      <c r="CD24" s="9"/>
+      <c r="CE24" s="9"/>
+      <c r="CF24" s="9"/>
+      <c r="CG24" s="9"/>
+      <c r="CH24" s="9"/>
+      <c r="CI24" s="9"/>
+      <c r="CJ24" s="9"/>
+      <c r="CK24" s="9"/>
+      <c r="CL24" s="9"/>
+      <c r="CM24" s="9"/>
+      <c r="CN24" s="9"/>
+      <c r="CO24" s="9"/>
+      <c r="CP24" s="9"/>
+      <c r="CQ24" s="9"/>
+      <c r="CR24" s="9"/>
+      <c r="CS24" s="9"/>
+      <c r="CT24" s="9"/>
+      <c r="CU24" s="9"/>
+      <c r="CV24" s="9"/>
+      <c r="CW24" s="9"/>
+      <c r="CX24" s="9"/>
+      <c r="CY24" s="9"/>
+      <c r="CZ24" s="9"/>
+      <c r="DA24" s="9"/>
+      <c r="DB24" s="9"/>
+      <c r="DC24" s="9"/>
+      <c r="DD24" s="9"/>
+      <c r="DE24" s="9"/>
+      <c r="DF24" s="9"/>
+      <c r="DG24" s="9"/>
+      <c r="DH24" s="9"/>
+      <c r="DI24" s="9"/>
+      <c r="DJ24" s="9"/>
+      <c r="DK24" s="9"/>
+      <c r="DL24" s="9"/>
+      <c r="DM24" s="9"/>
+      <c r="DN24" s="9"/>
+      <c r="DO24" s="9"/>
+      <c r="DP24" s="9"/>
+      <c r="DQ24" s="9"/>
+      <c r="DR24" s="9"/>
+      <c r="DS24" s="9"/>
+      <c r="DT24" s="9"/>
+      <c r="DU24" s="9"/>
+      <c r="DV24" s="9"/>
+      <c r="DW24" s="9"/>
+      <c r="DX24" s="9"/>
+      <c r="DY24" s="9"/>
+      <c r="DZ24" s="9"/>
+      <c r="EA24" s="9"/>
+      <c r="EB24" s="9"/>
+      <c r="EC24" s="9"/>
+      <c r="ED24" s="9"/>
+      <c r="EE24" s="9"/>
+      <c r="EF24" s="9"/>
+      <c r="EG24" s="9"/>
+      <c r="EH24" s="9"/>
+      <c r="EI24" s="9"/>
+      <c r="EJ24" s="9"/>
+      <c r="EK24" s="9"/>
+      <c r="EL24" s="9"/>
+      <c r="EM24" s="9"/>
+      <c r="EN24" s="9"/>
+      <c r="EO24" s="9"/>
+      <c r="EP24" s="9"/>
+      <c r="EQ24" s="9"/>
+      <c r="ER24" s="9"/>
+      <c r="ES24" s="9"/>
+      <c r="ET24" s="9"/>
+      <c r="EU24" s="9"/>
+      <c r="EV24" s="9"/>
+      <c r="EW24" s="9"/>
+      <c r="EX24" s="9"/>
+      <c r="EY24" s="9"/>
+      <c r="EZ24" s="9"/>
+      <c r="FA24" s="9"/>
+      <c r="FB24" s="9"/>
+      <c r="FC24" s="9"/>
+      <c r="FD24" s="9"/>
+      <c r="FE24" s="9"/>
+      <c r="FF24" s="9"/>
+      <c r="FG24" s="9"/>
+      <c r="FH24" s="9"/>
+      <c r="FI24" s="9"/>
+      <c r="FJ24" s="9"/>
+      <c r="FK24" s="9"/>
+      <c r="FL24" s="9"/>
+      <c r="FM24" s="9"/>
+      <c r="FN24" s="9"/>
+      <c r="FO24" s="9"/>
+      <c r="FP24" s="9"/>
+      <c r="FQ24" s="9"/>
+    </row>
+    <row r="25" spans="1:173" x14ac:dyDescent="0.45">
+      <c r="A25" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="34">
+      <c r="B25" s="23">
         <v>45711</v>
       </c>
-      <c r="C25" s="34">
+      <c r="C25" s="23">
         <v>45712</v>
       </c>
       <c r="T25" s="5"/>
       <c r="U25" s="5"/>
       <c r="V25" s="5"/>
     </row>
-    <row r="26" spans="1:45" x14ac:dyDescent="0.45">
-      <c r="A26" s="35"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
+    <row r="26" spans="1:173" x14ac:dyDescent="0.45">
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
       <c r="X26" s="4"/>
       <c r="Y26" s="18"/>
       <c r="Z26" s="4"/>
@@ -1951,47 +3336,47 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:45" x14ac:dyDescent="0.45">
-      <c r="A27" s="35" t="s">
+    <row r="27" spans="1:173" x14ac:dyDescent="0.45">
+      <c r="A27" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="34">
+      <c r="B27" s="23">
         <v>45712</v>
       </c>
-      <c r="C27" s="34">
+      <c r="C27" s="23">
         <v>45714</v>
       </c>
       <c r="Y27" s="5"/>
       <c r="Z27" s="5"/>
       <c r="AA27" s="5"/>
     </row>
-    <row r="28" spans="1:45" x14ac:dyDescent="0.45">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
+    <row r="28" spans="1:173" x14ac:dyDescent="0.45">
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
       <c r="Y28" s="4"/>
       <c r="Z28" s="4"/>
       <c r="AA28" s="18" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:45" x14ac:dyDescent="0.45">
-      <c r="A29" s="35" t="s">
+    <row r="29" spans="1:173" x14ac:dyDescent="0.45">
+      <c r="A29" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="24">
+      <c r="B29" s="29">
         <v>45715</v>
       </c>
-      <c r="C29" s="24">
+      <c r="C29" s="29">
         <v>45716</v>
       </c>
       <c r="AB29" s="5"/>
       <c r="AC29" s="5"/>
     </row>
-    <row r="30" spans="1:45" x14ac:dyDescent="0.45">
-      <c r="A30" s="35"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
+    <row r="30" spans="1:173" x14ac:dyDescent="0.45">
+      <c r="A30" s="22"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
       <c r="AB30" s="19"/>
       <c r="AC30" s="19"/>
       <c r="AD30" s="4"/>
@@ -2001,23 +3386,23 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:45" x14ac:dyDescent="0.45">
-      <c r="A31" s="35" t="s">
+    <row r="31" spans="1:173" x14ac:dyDescent="0.45">
+      <c r="A31" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="24">
+      <c r="B31" s="29">
         <v>45715</v>
       </c>
-      <c r="C31" s="24">
+      <c r="C31" s="29">
         <v>45715</v>
       </c>
       <c r="AB31" s="5"/>
       <c r="AC31" s="5"/>
     </row>
-    <row r="32" spans="1:45" x14ac:dyDescent="0.45">
-      <c r="A32" s="35"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
+    <row r="32" spans="1:173" x14ac:dyDescent="0.45">
+      <c r="A32" s="22"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
       <c r="AB32" s="18"/>
       <c r="AC32" s="4"/>
       <c r="AD32" s="4"/>
@@ -2039,23 +3424,23 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:87" x14ac:dyDescent="0.45">
-      <c r="A33" s="35" t="s">
+    <row r="33" spans="1:173" x14ac:dyDescent="0.45">
+      <c r="A33" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="24">
+      <c r="B33" s="29">
         <v>45718</v>
       </c>
-      <c r="C33" s="24">
+      <c r="C33" s="29">
         <v>45735</v>
       </c>
       <c r="AD33" s="5"/>
       <c r="AE33" s="5"/>
     </row>
-    <row r="34" spans="1:87" x14ac:dyDescent="0.45">
-      <c r="A34" s="35"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
+    <row r="34" spans="1:173" x14ac:dyDescent="0.45">
+      <c r="A34" s="22"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
       <c r="AD34" s="4"/>
       <c r="AE34" s="4"/>
       <c r="AF34" s="18"/>
@@ -2078,7 +3463,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:87" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:173" x14ac:dyDescent="0.45">
       <c r="A35" s="17" t="s">
         <v>36</v>
       </c>
@@ -2126,45 +3511,173 @@
       <c r="AQ35" s="16"/>
       <c r="AR35" s="16"/>
       <c r="AS35" s="16"/>
-    </row>
-    <row r="36" spans="1:87" x14ac:dyDescent="0.45">
-      <c r="A36" s="26" t="s">
+      <c r="AT35" s="16"/>
+      <c r="AU35" s="16"/>
+      <c r="AV35" s="16"/>
+      <c r="AW35" s="16"/>
+      <c r="AX35" s="16"/>
+      <c r="AY35" s="16"/>
+      <c r="AZ35" s="16"/>
+      <c r="BA35" s="16"/>
+      <c r="BB35" s="16"/>
+      <c r="BC35" s="16"/>
+      <c r="BD35" s="16"/>
+      <c r="BE35" s="16"/>
+      <c r="BF35" s="16"/>
+      <c r="BG35" s="16"/>
+      <c r="BH35" s="16"/>
+      <c r="BI35" s="16"/>
+      <c r="BJ35" s="16"/>
+      <c r="BK35" s="16"/>
+      <c r="BL35" s="16"/>
+      <c r="BM35" s="16"/>
+      <c r="BN35" s="16"/>
+      <c r="BO35" s="16"/>
+      <c r="BP35" s="16"/>
+      <c r="BQ35" s="16"/>
+      <c r="BR35" s="16"/>
+      <c r="BS35" s="16"/>
+      <c r="BT35" s="16"/>
+      <c r="BU35" s="16"/>
+      <c r="BV35" s="16"/>
+      <c r="BW35" s="16"/>
+      <c r="BX35" s="16"/>
+      <c r="BY35" s="16"/>
+      <c r="BZ35" s="16"/>
+      <c r="CA35" s="16"/>
+      <c r="CB35" s="16"/>
+      <c r="CC35" s="16"/>
+      <c r="CD35" s="16"/>
+      <c r="CE35" s="16"/>
+      <c r="CF35" s="16"/>
+      <c r="CG35" s="16"/>
+      <c r="CH35" s="16"/>
+      <c r="CI35" s="16"/>
+      <c r="CJ35" s="16"/>
+      <c r="CK35" s="16"/>
+      <c r="CL35" s="16"/>
+      <c r="CM35" s="16"/>
+      <c r="CN35" s="16"/>
+      <c r="CO35" s="16"/>
+      <c r="CP35" s="16"/>
+      <c r="CQ35" s="16"/>
+      <c r="CR35" s="16"/>
+      <c r="CS35" s="16"/>
+      <c r="CT35" s="16"/>
+      <c r="CU35" s="16"/>
+      <c r="CV35" s="16"/>
+      <c r="CW35" s="16"/>
+      <c r="CX35" s="16"/>
+      <c r="CY35" s="16"/>
+      <c r="CZ35" s="16"/>
+      <c r="DA35" s="16"/>
+      <c r="DB35" s="16"/>
+      <c r="DC35" s="16"/>
+      <c r="DD35" s="16"/>
+      <c r="DE35" s="16"/>
+      <c r="DF35" s="16"/>
+      <c r="DG35" s="16"/>
+      <c r="DH35" s="16"/>
+      <c r="DI35" s="16"/>
+      <c r="DJ35" s="16"/>
+      <c r="DK35" s="16"/>
+      <c r="DL35" s="16"/>
+      <c r="DM35" s="16"/>
+      <c r="DN35" s="16"/>
+      <c r="DO35" s="16"/>
+      <c r="DP35" s="16"/>
+      <c r="DQ35" s="16"/>
+      <c r="DR35" s="16"/>
+      <c r="DS35" s="16"/>
+      <c r="DT35" s="16"/>
+      <c r="DU35" s="16"/>
+      <c r="DV35" s="16"/>
+      <c r="DW35" s="16"/>
+      <c r="DX35" s="16"/>
+      <c r="DY35" s="16"/>
+      <c r="DZ35" s="16"/>
+      <c r="EA35" s="16"/>
+      <c r="EB35" s="16"/>
+      <c r="EC35" s="16"/>
+      <c r="ED35" s="16"/>
+      <c r="EE35" s="16"/>
+      <c r="EF35" s="16"/>
+      <c r="EG35" s="16"/>
+      <c r="EH35" s="16"/>
+      <c r="EI35" s="16"/>
+      <c r="EJ35" s="16"/>
+      <c r="EK35" s="16"/>
+      <c r="EL35" s="16"/>
+      <c r="EM35" s="16"/>
+      <c r="EN35" s="16"/>
+      <c r="EO35" s="16"/>
+      <c r="EP35" s="16"/>
+      <c r="EQ35" s="16"/>
+      <c r="ER35" s="16"/>
+      <c r="ES35" s="16"/>
+      <c r="ET35" s="16"/>
+      <c r="EU35" s="16"/>
+      <c r="EV35" s="16"/>
+      <c r="EW35" s="16"/>
+      <c r="EX35" s="16"/>
+      <c r="EY35" s="16"/>
+      <c r="EZ35" s="16"/>
+      <c r="FA35" s="16"/>
+      <c r="FB35" s="16"/>
+      <c r="FC35" s="16"/>
+      <c r="FD35" s="16"/>
+      <c r="FE35" s="16"/>
+      <c r="FF35" s="16"/>
+      <c r="FG35" s="16"/>
+      <c r="FH35" s="16"/>
+      <c r="FI35" s="16"/>
+      <c r="FJ35" s="16"/>
+      <c r="FK35" s="16"/>
+      <c r="FL35" s="16"/>
+      <c r="FM35" s="16"/>
+      <c r="FN35" s="16"/>
+      <c r="FO35" s="16"/>
+      <c r="FP35" s="16"/>
+      <c r="FQ35" s="16"/>
+    </row>
+    <row r="36" spans="1:173" x14ac:dyDescent="0.45">
+      <c r="A36" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="24">
+      <c r="B36" s="29">
         <v>45708</v>
       </c>
-      <c r="C36" s="24">
+      <c r="C36" s="29">
         <v>45708</v>
       </c>
       <c r="U36" s="5"/>
       <c r="V36" s="5"/>
     </row>
-    <row r="37" spans="1:87" x14ac:dyDescent="0.45">
-      <c r="A37" s="25"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
+    <row r="37" spans="1:173" x14ac:dyDescent="0.45">
+      <c r="A37" s="28"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
       <c r="U37" s="4"/>
     </row>
-    <row r="38" spans="1:87" x14ac:dyDescent="0.45">
-      <c r="A38" s="26" t="s">
+    <row r="38" spans="1:173" x14ac:dyDescent="0.45">
+      <c r="A38" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="24">
+      <c r="B38" s="29">
         <v>45692</v>
       </c>
-      <c r="C38" s="24">
+      <c r="C38" s="29">
         <v>45692</v>
       </c>
       <c r="E38" s="5"/>
     </row>
-    <row r="39" spans="1:87" x14ac:dyDescent="0.45">
-      <c r="A39" s="25"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
+    <row r="39" spans="1:173" x14ac:dyDescent="0.45">
+      <c r="A39" s="28"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="28"/>
       <c r="E39" s="4"/>
     </row>
-    <row r="40" spans="1:87" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:173" x14ac:dyDescent="0.45">
       <c r="A40" s="21" t="s">
         <v>44</v>
       </c>
@@ -2254,16 +3767,102 @@
       <c r="CG40" s="20"/>
       <c r="CH40" s="20"/>
       <c r="CI40" s="20"/>
-    </row>
-    <row r="41" spans="1:87" x14ac:dyDescent="0.45">
-      <c r="A41" s="26" t="s">
+      <c r="CJ40" s="49"/>
+      <c r="CK40" s="49"/>
+      <c r="CL40" s="49"/>
+      <c r="CM40" s="49"/>
+      <c r="CN40" s="49"/>
+      <c r="CO40" s="49"/>
+      <c r="CP40" s="49"/>
+      <c r="CQ40" s="49"/>
+      <c r="CR40" s="49"/>
+      <c r="CS40" s="49"/>
+      <c r="CT40" s="49"/>
+      <c r="CU40" s="49"/>
+      <c r="CV40" s="49"/>
+      <c r="CW40" s="49"/>
+      <c r="CX40" s="49"/>
+      <c r="CY40" s="49"/>
+      <c r="CZ40" s="49"/>
+      <c r="DA40" s="49"/>
+      <c r="DB40" s="49"/>
+      <c r="DC40" s="49"/>
+      <c r="DD40" s="49"/>
+      <c r="DE40" s="49"/>
+      <c r="DF40" s="49"/>
+      <c r="DG40" s="49"/>
+      <c r="DH40" s="49"/>
+      <c r="DI40" s="49"/>
+      <c r="DJ40" s="49"/>
+      <c r="DK40" s="49"/>
+      <c r="DL40" s="49"/>
+      <c r="DM40" s="49"/>
+      <c r="DN40" s="49"/>
+      <c r="DO40" s="49"/>
+      <c r="DP40" s="49"/>
+      <c r="DQ40" s="49"/>
+      <c r="DR40" s="49"/>
+      <c r="DS40" s="49"/>
+      <c r="DT40" s="49"/>
+      <c r="DU40" s="49"/>
+      <c r="DV40" s="49"/>
+      <c r="DW40" s="49"/>
+      <c r="DX40" s="49"/>
+      <c r="DY40" s="49"/>
+      <c r="DZ40" s="49"/>
+      <c r="EA40" s="49"/>
+      <c r="EB40" s="49"/>
+      <c r="EC40" s="49"/>
+      <c r="ED40" s="49"/>
+      <c r="EE40" s="49"/>
+      <c r="EF40" s="49"/>
+      <c r="EG40" s="49"/>
+      <c r="EH40" s="49"/>
+      <c r="EI40" s="49"/>
+      <c r="EJ40" s="49"/>
+      <c r="EK40" s="49"/>
+      <c r="EL40" s="49"/>
+      <c r="EM40" s="49"/>
+      <c r="EN40" s="49"/>
+      <c r="EO40" s="49"/>
+      <c r="EP40" s="49"/>
+      <c r="EQ40" s="49"/>
+      <c r="ER40" s="49"/>
+      <c r="ES40" s="49"/>
+      <c r="ET40" s="49"/>
+      <c r="EU40" s="49"/>
+      <c r="EV40" s="49"/>
+      <c r="EW40" s="49"/>
+      <c r="EX40" s="49"/>
+      <c r="EY40" s="49"/>
+      <c r="EZ40" s="49"/>
+      <c r="FA40" s="49"/>
+      <c r="FB40" s="49"/>
+      <c r="FC40" s="49"/>
+      <c r="FD40" s="49"/>
+      <c r="FE40" s="49"/>
+      <c r="FF40" s="49"/>
+      <c r="FG40" s="49"/>
+      <c r="FH40" s="49"/>
+      <c r="FI40" s="49"/>
+      <c r="FJ40" s="49"/>
+      <c r="FK40" s="49"/>
+      <c r="FL40" s="49"/>
+      <c r="FM40" s="49"/>
+      <c r="FN40" s="49"/>
+      <c r="FO40" s="49"/>
+      <c r="FP40" s="49"/>
+      <c r="FQ40" s="49"/>
+    </row>
+    <row r="41" spans="1:173" x14ac:dyDescent="0.45">
+      <c r="A41" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="24">
+      <c r="B41" s="29">
         <v>45747</v>
       </c>
-      <c r="C41" s="40">
-        <v>45859</v>
+      <c r="C41" s="29">
+        <v>45828</v>
       </c>
       <c r="BH41" s="5"/>
       <c r="BI41" s="5"/>
@@ -2294,10 +3893,10 @@
       <c r="CH41" s="5"/>
       <c r="CI41" s="5"/>
     </row>
-    <row r="42" spans="1:87" x14ac:dyDescent="0.45">
-      <c r="A42" s="25"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
+    <row r="42" spans="1:173" x14ac:dyDescent="0.45">
+      <c r="A42" s="28"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="47"/>
       <c r="BH42" s="4"/>
       <c r="BI42" s="4"/>
       <c r="BJ42" s="4"/>
@@ -2309,16 +3908,89 @@
       <c r="BP42" s="4"/>
       <c r="BQ42" s="4"/>
       <c r="BR42" s="4"/>
-    </row>
-    <row r="43" spans="1:87" x14ac:dyDescent="0.45">
-      <c r="A43" s="26" t="s">
+      <c r="BS42" s="4"/>
+      <c r="BT42" s="4"/>
+      <c r="BU42" s="4"/>
+      <c r="BV42" s="4"/>
+      <c r="BW42" s="4"/>
+      <c r="BX42" s="4"/>
+      <c r="BY42" s="4"/>
+      <c r="BZ42" s="4"/>
+      <c r="CA42" s="4"/>
+      <c r="CB42" s="4"/>
+      <c r="CC42" s="4"/>
+      <c r="CD42" s="4"/>
+      <c r="CE42" s="4"/>
+      <c r="CF42" s="4"/>
+      <c r="CG42" s="4"/>
+      <c r="CH42" s="4"/>
+      <c r="CI42" s="4"/>
+      <c r="CJ42" s="4"/>
+      <c r="CK42" s="4"/>
+      <c r="CL42" s="4"/>
+      <c r="CM42" s="4"/>
+      <c r="CN42" s="4"/>
+      <c r="CO42" s="4"/>
+      <c r="CP42" s="4"/>
+      <c r="CQ42" s="4"/>
+      <c r="CR42" s="4"/>
+      <c r="CS42" s="4"/>
+      <c r="CT42" s="4"/>
+      <c r="CU42" s="4"/>
+      <c r="CV42" s="4"/>
+      <c r="CW42" s="4"/>
+      <c r="CX42" s="4"/>
+      <c r="CY42" s="4"/>
+      <c r="CZ42" s="4"/>
+      <c r="DA42" s="4"/>
+      <c r="DB42" s="4"/>
+      <c r="DC42" s="4"/>
+      <c r="DD42" s="4"/>
+      <c r="DE42" s="4"/>
+      <c r="DF42" s="4"/>
+      <c r="DG42" s="4"/>
+      <c r="DH42" s="4"/>
+      <c r="DI42" s="4"/>
+      <c r="DJ42" s="4"/>
+      <c r="DK42" s="4"/>
+      <c r="DL42" s="4"/>
+      <c r="DM42" s="4"/>
+      <c r="DN42" s="4"/>
+      <c r="DO42" s="4"/>
+      <c r="DP42" s="4"/>
+      <c r="DQ42" s="4"/>
+      <c r="DR42" s="4"/>
+      <c r="DS42" s="4"/>
+      <c r="DT42" s="4"/>
+      <c r="DU42" s="4"/>
+      <c r="DV42" s="4"/>
+      <c r="DW42" s="4"/>
+      <c r="DX42" s="4"/>
+      <c r="DY42" s="4"/>
+      <c r="DZ42" s="4"/>
+      <c r="EA42" s="4"/>
+      <c r="EB42" s="4"/>
+      <c r="EC42" s="4"/>
+      <c r="ED42" s="4"/>
+      <c r="EE42" s="4"/>
+      <c r="EF42" s="4"/>
+      <c r="EG42" s="4"/>
+      <c r="EH42" s="4"/>
+      <c r="EI42" s="4"/>
+      <c r="EJ42" s="4"/>
+      <c r="EK42" s="18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:173" x14ac:dyDescent="0.45">
+      <c r="A43" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="B43" s="24">
+      <c r="B43" s="29">
         <v>45748</v>
       </c>
-      <c r="C43" s="24">
-        <v>45859</v>
+      <c r="C43" s="29">
+        <v>45849</v>
       </c>
       <c r="BI43" s="5"/>
       <c r="BJ43" s="5"/>
@@ -2348,10 +4020,10 @@
       <c r="CH43" s="5"/>
       <c r="CI43" s="5"/>
     </row>
-    <row r="44" spans="1:87" x14ac:dyDescent="0.45">
-      <c r="A44" s="25"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
+    <row r="44" spans="1:173" x14ac:dyDescent="0.45">
+      <c r="A44" s="28"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
       <c r="BI44" s="4"/>
       <c r="BJ44" s="4"/>
       <c r="BK44" s="4"/>
@@ -2362,76 +4034,1259 @@
       <c r="BP44" s="4"/>
       <c r="BQ44" s="4"/>
       <c r="BR44" s="4"/>
-    </row>
-    <row r="45" spans="1:87" x14ac:dyDescent="0.45">
-      <c r="A45" s="26" t="s">
+      <c r="BS44" s="4"/>
+      <c r="BT44" s="4"/>
+      <c r="BU44" s="4"/>
+      <c r="BV44" s="4"/>
+      <c r="BW44" s="4"/>
+      <c r="BX44" s="4"/>
+      <c r="BY44" s="4"/>
+      <c r="BZ44" s="4"/>
+      <c r="CA44" s="4"/>
+      <c r="CB44" s="4"/>
+      <c r="CC44" s="4"/>
+      <c r="CD44" s="4"/>
+      <c r="CE44" s="4"/>
+      <c r="CF44" s="4"/>
+      <c r="CG44" s="4"/>
+      <c r="CH44" s="4"/>
+      <c r="CI44" s="4"/>
+      <c r="CJ44" s="4"/>
+      <c r="CK44" s="4"/>
+      <c r="CL44" s="4"/>
+      <c r="CM44" s="4"/>
+      <c r="CN44" s="4"/>
+      <c r="CO44" s="4"/>
+      <c r="CP44" s="4"/>
+      <c r="CQ44" s="4"/>
+      <c r="CR44" s="4"/>
+      <c r="CS44" s="4"/>
+      <c r="CT44" s="4"/>
+      <c r="CU44" s="4"/>
+      <c r="CV44" s="4"/>
+      <c r="CW44" s="4"/>
+      <c r="CX44" s="4"/>
+      <c r="CY44" s="4"/>
+      <c r="CZ44" s="4"/>
+      <c r="DA44" s="4"/>
+      <c r="DB44" s="4"/>
+      <c r="DC44" s="4"/>
+      <c r="DD44" s="4"/>
+      <c r="DE44" s="4"/>
+      <c r="DF44" s="4"/>
+      <c r="DG44" s="4"/>
+      <c r="DH44" s="4"/>
+      <c r="DI44" s="4"/>
+      <c r="DJ44" s="4"/>
+      <c r="DK44" s="4"/>
+      <c r="DL44" s="4"/>
+      <c r="DM44" s="4"/>
+      <c r="DN44" s="4"/>
+      <c r="DO44" s="4"/>
+      <c r="DP44" s="4"/>
+      <c r="DQ44" s="4"/>
+      <c r="DR44" s="4"/>
+      <c r="DS44" s="4"/>
+      <c r="DT44" s="4"/>
+      <c r="DU44" s="4"/>
+      <c r="DV44" s="4"/>
+      <c r="DW44" s="4"/>
+      <c r="DX44" s="4"/>
+      <c r="DY44" s="4"/>
+      <c r="DZ44" s="4"/>
+      <c r="EA44" s="4"/>
+      <c r="EB44" s="4"/>
+      <c r="EC44" s="4"/>
+      <c r="ED44" s="4"/>
+      <c r="EE44" s="4"/>
+      <c r="EF44" s="4"/>
+      <c r="EG44" s="4"/>
+      <c r="EH44" s="4"/>
+      <c r="EI44" s="4"/>
+      <c r="EJ44" s="4"/>
+      <c r="EK44" s="4"/>
+      <c r="EL44" s="4"/>
+      <c r="EM44" s="4"/>
+      <c r="EN44" s="4"/>
+      <c r="EO44" s="4"/>
+      <c r="EP44" s="4"/>
+      <c r="EQ44" s="4"/>
+      <c r="ER44" s="4"/>
+      <c r="ES44" s="4"/>
+      <c r="ET44" s="4"/>
+      <c r="EU44" s="4"/>
+      <c r="EV44" s="4"/>
+      <c r="EW44" s="4"/>
+      <c r="EX44" s="4"/>
+      <c r="EY44" s="4"/>
+      <c r="EZ44" s="4"/>
+      <c r="FA44" s="4"/>
+      <c r="FB44" s="4"/>
+      <c r="FC44" s="4"/>
+      <c r="FD44" s="4"/>
+      <c r="FE44" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="FF44" s="48"/>
+    </row>
+    <row r="45" spans="1:173" x14ac:dyDescent="0.45">
+      <c r="A45" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="24">
+      <c r="B45" s="29">
         <v>45748</v>
       </c>
-      <c r="C45" s="24">
+      <c r="C45" s="29">
+        <v>45856</v>
+      </c>
+      <c r="BI45" s="5"/>
+      <c r="BJ45" s="5"/>
+      <c r="BK45" s="5"/>
+      <c r="BL45" s="5"/>
+      <c r="BM45" s="5"/>
+      <c r="BN45" s="5"/>
+      <c r="BO45" s="5"/>
+      <c r="BP45" s="5"/>
+      <c r="BQ45" s="5"/>
+      <c r="BR45" s="5"/>
+      <c r="BS45" s="5"/>
+      <c r="BT45" s="5"/>
+      <c r="BU45" s="5"/>
+      <c r="BV45" s="5"/>
+      <c r="BW45" s="5"/>
+      <c r="BX45" s="5"/>
+      <c r="BY45" s="5"/>
+      <c r="BZ45" s="5"/>
+      <c r="CA45" s="5"/>
+      <c r="CB45" s="5"/>
+      <c r="CC45" s="5"/>
+      <c r="CD45" s="5"/>
+      <c r="CE45" s="5"/>
+      <c r="CF45" s="5"/>
+      <c r="CG45" s="5"/>
+      <c r="CH45" s="5"/>
+      <c r="CI45" s="5"/>
+      <c r="CJ45" s="5"/>
+      <c r="CK45" s="5"/>
+      <c r="CL45" s="5"/>
+      <c r="CM45" s="5"/>
+      <c r="CN45" s="5"/>
+      <c r="CO45" s="5"/>
+      <c r="CP45" s="5"/>
+      <c r="CQ45" s="5"/>
+      <c r="CR45" s="5"/>
+      <c r="CS45" s="5"/>
+      <c r="CT45" s="5"/>
+      <c r="CU45" s="5"/>
+      <c r="CV45" s="5"/>
+      <c r="CW45" s="5"/>
+      <c r="CX45" s="5"/>
+      <c r="CY45" s="5"/>
+      <c r="CZ45" s="5"/>
+      <c r="DA45" s="5"/>
+      <c r="DB45" s="5"/>
+      <c r="DC45" s="5"/>
+      <c r="DD45" s="5"/>
+      <c r="DE45" s="5"/>
+      <c r="DF45" s="5"/>
+      <c r="DG45" s="5"/>
+      <c r="DH45" s="5"/>
+      <c r="DI45" s="5"/>
+      <c r="DJ45" s="5"/>
+      <c r="DK45" s="5"/>
+      <c r="DL45" s="5"/>
+      <c r="DM45" s="5"/>
+      <c r="DN45" s="5"/>
+      <c r="DO45" s="5"/>
+      <c r="DP45" s="5"/>
+      <c r="DQ45" s="5"/>
+      <c r="DR45" s="5"/>
+      <c r="DS45" s="5"/>
+      <c r="DT45" s="5"/>
+      <c r="DU45" s="5"/>
+      <c r="DV45" s="5"/>
+      <c r="DW45" s="5"/>
+      <c r="DX45" s="5"/>
+    </row>
+    <row r="46" spans="1:173" x14ac:dyDescent="0.45">
+      <c r="A46" s="28"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="28"/>
+      <c r="BI46" s="4"/>
+      <c r="BJ46" s="4"/>
+      <c r="BK46" s="4"/>
+      <c r="BL46" s="4"/>
+      <c r="BM46" s="4"/>
+      <c r="BN46" s="4"/>
+      <c r="BO46" s="4"/>
+      <c r="BP46" s="4"/>
+      <c r="BQ46" s="4"/>
+      <c r="BR46" s="4"/>
+      <c r="BS46" s="4"/>
+      <c r="BT46" s="4"/>
+      <c r="BU46" s="4"/>
+      <c r="BV46" s="4"/>
+      <c r="BW46" s="4"/>
+      <c r="BX46" s="4"/>
+      <c r="BY46" s="4"/>
+      <c r="BZ46" s="4"/>
+      <c r="CA46" s="4"/>
+      <c r="CB46" s="4"/>
+      <c r="CC46" s="4"/>
+      <c r="CD46" s="4"/>
+      <c r="CE46" s="4"/>
+      <c r="CF46" s="4"/>
+      <c r="CG46" s="4"/>
+      <c r="CH46" s="4"/>
+      <c r="CI46" s="4"/>
+      <c r="CJ46" s="4"/>
+      <c r="CK46" s="4"/>
+      <c r="CL46" s="4"/>
+      <c r="CM46" s="4"/>
+      <c r="CN46" s="4"/>
+      <c r="CO46" s="4"/>
+      <c r="CP46" s="4"/>
+      <c r="CQ46" s="4"/>
+      <c r="CR46" s="4"/>
+      <c r="CS46" s="4"/>
+      <c r="CT46" s="4"/>
+      <c r="CU46" s="4"/>
+      <c r="CV46" s="4"/>
+      <c r="CW46" s="4"/>
+      <c r="CX46" s="4"/>
+      <c r="CY46" s="4"/>
+      <c r="CZ46" s="4"/>
+      <c r="DA46" s="4"/>
+      <c r="DB46" s="4"/>
+      <c r="DC46" s="4"/>
+      <c r="DD46" s="4"/>
+      <c r="DE46" s="4"/>
+      <c r="DF46" s="4"/>
+      <c r="DG46" s="4"/>
+      <c r="DH46" s="4"/>
+      <c r="DI46" s="4"/>
+      <c r="DJ46" s="4"/>
+      <c r="DK46" s="4"/>
+      <c r="DL46" s="4"/>
+      <c r="DM46" s="4"/>
+      <c r="DN46" s="4"/>
+      <c r="DO46" s="4"/>
+      <c r="DP46" s="4"/>
+      <c r="DQ46" s="4"/>
+      <c r="DR46" s="4"/>
+      <c r="DS46" s="4"/>
+      <c r="DT46" s="4"/>
+      <c r="DU46" s="4"/>
+      <c r="DV46" s="4"/>
+      <c r="DW46" s="4"/>
+      <c r="DX46" s="4"/>
+      <c r="DY46" s="4"/>
+      <c r="DZ46" s="4"/>
+      <c r="EA46" s="4"/>
+      <c r="EB46" s="4"/>
+      <c r="EC46" s="4"/>
+      <c r="ED46" s="4"/>
+      <c r="EE46" s="4"/>
+      <c r="EF46" s="4"/>
+      <c r="EG46" s="4"/>
+      <c r="EH46" s="4"/>
+      <c r="EI46" s="4"/>
+      <c r="EJ46" s="4"/>
+      <c r="EK46" s="4"/>
+      <c r="EL46" s="4"/>
+      <c r="EM46" s="4"/>
+      <c r="EN46" s="4"/>
+      <c r="EO46" s="4"/>
+      <c r="EP46" s="4"/>
+      <c r="EQ46" s="4"/>
+      <c r="ER46" s="4"/>
+      <c r="ES46" s="4"/>
+      <c r="ET46" s="4"/>
+      <c r="EU46" s="4"/>
+      <c r="EV46" s="4"/>
+      <c r="EW46" s="4"/>
+      <c r="EX46" s="4"/>
+      <c r="EY46" s="4"/>
+      <c r="EZ46" s="4"/>
+      <c r="FA46" s="4"/>
+      <c r="FB46" s="4"/>
+      <c r="FC46" s="4"/>
+      <c r="FD46" s="4"/>
+      <c r="FE46" s="4"/>
+      <c r="FF46" s="4"/>
+      <c r="FG46" s="4"/>
+      <c r="FH46" s="4"/>
+      <c r="FI46" s="4"/>
+      <c r="FJ46" s="4"/>
+      <c r="FK46" s="4"/>
+      <c r="FL46" s="4"/>
+      <c r="FM46" s="4"/>
+    </row>
+    <row r="47" spans="1:173" x14ac:dyDescent="0.45">
+      <c r="A47" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="29">
+        <v>45748</v>
+      </c>
+      <c r="C47" s="29">
+        <v>45856</v>
+      </c>
+      <c r="BI47" s="5"/>
+      <c r="BJ47" s="5"/>
+      <c r="BK47" s="5"/>
+      <c r="BL47" s="5"/>
+      <c r="BM47" s="5"/>
+      <c r="BN47" s="5"/>
+      <c r="BO47" s="5"/>
+      <c r="BP47" s="5"/>
+      <c r="BQ47" s="5"/>
+      <c r="BR47" s="5"/>
+      <c r="BS47" s="5"/>
+      <c r="BT47" s="5"/>
+      <c r="BU47" s="5"/>
+      <c r="BV47" s="5"/>
+      <c r="BW47" s="5"/>
+      <c r="BX47" s="5"/>
+      <c r="BY47" s="5"/>
+      <c r="BZ47" s="5"/>
+      <c r="CA47" s="5"/>
+      <c r="CB47" s="5"/>
+      <c r="CC47" s="5"/>
+      <c r="CD47" s="5"/>
+      <c r="CE47" s="5"/>
+      <c r="CF47" s="5"/>
+      <c r="CG47" s="5"/>
+      <c r="CH47" s="5"/>
+      <c r="CI47" s="5"/>
+      <c r="CJ47" s="5"/>
+      <c r="CK47" s="5"/>
+      <c r="CL47" s="5"/>
+      <c r="CM47" s="5"/>
+      <c r="CN47" s="5"/>
+      <c r="CO47" s="5"/>
+      <c r="CP47" s="5"/>
+      <c r="CQ47" s="5"/>
+      <c r="CR47" s="5"/>
+      <c r="CS47" s="5"/>
+      <c r="CT47" s="5"/>
+      <c r="CU47" s="5"/>
+      <c r="CV47" s="5"/>
+      <c r="CW47" s="5"/>
+      <c r="CX47" s="5"/>
+      <c r="CY47" s="5"/>
+      <c r="CZ47" s="5"/>
+      <c r="DA47" s="5"/>
+      <c r="DB47" s="5"/>
+      <c r="DC47" s="5"/>
+      <c r="DD47" s="5"/>
+      <c r="DE47" s="5"/>
+      <c r="DF47" s="5"/>
+      <c r="DG47" s="5"/>
+      <c r="DH47" s="5"/>
+      <c r="DI47" s="5"/>
+      <c r="DJ47" s="5"/>
+      <c r="DK47" s="5"/>
+      <c r="DL47" s="5"/>
+      <c r="DM47" s="5"/>
+      <c r="DN47" s="5"/>
+      <c r="DO47" s="5"/>
+      <c r="DP47" s="5"/>
+      <c r="DQ47" s="5"/>
+      <c r="DR47" s="5"/>
+      <c r="DS47" s="5"/>
+      <c r="DT47" s="5"/>
+      <c r="DU47" s="5"/>
+      <c r="DV47" s="5"/>
+      <c r="DW47" s="5"/>
+      <c r="DX47" s="5"/>
+      <c r="DY47" s="5"/>
+      <c r="DZ47" s="5"/>
+      <c r="EA47" s="5"/>
+      <c r="EB47" s="5"/>
+      <c r="EC47" s="5"/>
+      <c r="ED47" s="5"/>
+      <c r="EE47" s="5"/>
+      <c r="EF47" s="5"/>
+      <c r="EG47" s="5"/>
+      <c r="EH47" s="5"/>
+      <c r="EI47" s="5"/>
+      <c r="EJ47" s="5"/>
+      <c r="EK47" s="5"/>
+      <c r="EL47" s="5"/>
+      <c r="EM47" s="5"/>
+      <c r="EN47" s="5"/>
+      <c r="EO47" s="5"/>
+      <c r="EP47" s="5"/>
+      <c r="EQ47" s="5"/>
+      <c r="ER47" s="5"/>
+      <c r="ES47" s="5"/>
+      <c r="ET47" s="5"/>
+      <c r="EU47" s="5"/>
+      <c r="EV47" s="5"/>
+      <c r="EW47" s="5"/>
+      <c r="EX47" s="5"/>
+      <c r="EY47" s="5"/>
+      <c r="EZ47" s="5"/>
+      <c r="FA47" s="5"/>
+      <c r="FB47" s="5"/>
+      <c r="FC47" s="5"/>
+    </row>
+    <row r="48" spans="1:173" x14ac:dyDescent="0.45">
+      <c r="A48" s="31"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="28"/>
+      <c r="BI48" s="4"/>
+      <c r="BJ48" s="4"/>
+      <c r="BK48" s="4"/>
+      <c r="BL48" s="4"/>
+      <c r="BM48" s="4"/>
+      <c r="BN48" s="4"/>
+      <c r="BO48" s="4"/>
+      <c r="BP48" s="4"/>
+      <c r="BQ48" s="4"/>
+      <c r="BR48" s="4"/>
+      <c r="BS48" s="4"/>
+      <c r="BT48" s="4"/>
+      <c r="BU48" s="4"/>
+      <c r="BV48" s="4"/>
+      <c r="BW48" s="4"/>
+      <c r="BX48" s="4"/>
+      <c r="BY48" s="4"/>
+      <c r="BZ48" s="4"/>
+      <c r="CA48" s="4"/>
+      <c r="CB48" s="4"/>
+      <c r="CC48" s="4"/>
+      <c r="CD48" s="4"/>
+      <c r="CE48" s="4"/>
+      <c r="CF48" s="4"/>
+      <c r="CG48" s="4"/>
+      <c r="CH48" s="4"/>
+      <c r="CI48" s="4"/>
+      <c r="CJ48" s="4"/>
+      <c r="CK48" s="4"/>
+      <c r="CL48" s="4"/>
+      <c r="CM48" s="4"/>
+      <c r="CN48" s="4"/>
+      <c r="CO48" s="4"/>
+      <c r="CP48" s="4"/>
+      <c r="CQ48" s="4"/>
+      <c r="CR48" s="4"/>
+      <c r="CS48" s="4"/>
+      <c r="CT48" s="4"/>
+      <c r="CU48" s="4"/>
+      <c r="CV48" s="4"/>
+      <c r="CW48" s="4"/>
+      <c r="CX48" s="4"/>
+      <c r="CY48" s="4"/>
+      <c r="CZ48" s="4"/>
+      <c r="DA48" s="4"/>
+      <c r="DB48" s="4"/>
+      <c r="DC48" s="4"/>
+      <c r="DD48" s="4"/>
+      <c r="DE48" s="4"/>
+      <c r="DF48" s="4"/>
+      <c r="DG48" s="4"/>
+      <c r="DH48" s="4"/>
+      <c r="DI48" s="4"/>
+      <c r="DJ48" s="4"/>
+      <c r="DK48" s="4"/>
+      <c r="DL48" s="4"/>
+      <c r="DM48" s="4"/>
+      <c r="DN48" s="4"/>
+      <c r="DO48" s="4"/>
+      <c r="DP48" s="4"/>
+      <c r="DQ48" s="4"/>
+      <c r="DR48" s="4"/>
+      <c r="DS48" s="4"/>
+      <c r="DT48" s="4"/>
+      <c r="DU48" s="4"/>
+      <c r="DV48" s="4"/>
+      <c r="DW48" s="4"/>
+      <c r="DX48" s="4"/>
+      <c r="DY48" s="4"/>
+      <c r="DZ48" s="4"/>
+      <c r="EA48" s="4"/>
+      <c r="EB48" s="4"/>
+      <c r="EC48" s="4"/>
+      <c r="ED48" s="4"/>
+      <c r="EE48" s="4"/>
+      <c r="EF48" s="4"/>
+      <c r="EG48" s="4"/>
+      <c r="EH48" s="4"/>
+      <c r="EI48" s="4"/>
+      <c r="EJ48" s="4"/>
+      <c r="EK48" s="4"/>
+      <c r="EL48" s="4"/>
+      <c r="EM48" s="4"/>
+      <c r="EN48" s="4"/>
+      <c r="EO48" s="4"/>
+      <c r="EP48" s="4"/>
+      <c r="EQ48" s="4"/>
+      <c r="ER48" s="4"/>
+      <c r="ES48" s="4"/>
+      <c r="ET48" s="4"/>
+      <c r="EU48" s="4"/>
+      <c r="EV48" s="4"/>
+      <c r="EW48" s="4"/>
+      <c r="EX48" s="4"/>
+      <c r="EY48" s="4"/>
+      <c r="EZ48" s="4"/>
+      <c r="FA48" s="4"/>
+      <c r="FB48" s="4"/>
+      <c r="FC48" s="4"/>
+      <c r="FD48" s="4"/>
+      <c r="FE48" s="4"/>
+      <c r="FF48" s="4"/>
+      <c r="FG48" s="4"/>
+      <c r="FH48" s="4"/>
+      <c r="FI48" s="4"/>
+      <c r="FJ48" s="4"/>
+      <c r="FK48" s="4"/>
+      <c r="FL48" s="4"/>
+      <c r="FM48" s="4"/>
+    </row>
+    <row r="49" spans="1:173" x14ac:dyDescent="0.45">
+      <c r="A49" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="29">
+        <v>45748</v>
+      </c>
+      <c r="C49" s="29">
         <v>45859</v>
       </c>
-    </row>
-    <row r="46" spans="1:87" x14ac:dyDescent="0.45">
-      <c r="A46" s="25"/>
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
-    </row>
-    <row r="47" spans="1:87" x14ac:dyDescent="0.45">
-      <c r="A47" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B47" s="24">
-        <v>45748</v>
-      </c>
-      <c r="C47" s="24">
+      <c r="BI49" s="5"/>
+      <c r="BJ49" s="5"/>
+      <c r="BK49" s="5"/>
+      <c r="BL49" s="5"/>
+      <c r="BM49" s="5"/>
+      <c r="BN49" s="5"/>
+      <c r="BO49" s="5"/>
+      <c r="BP49" s="5"/>
+      <c r="BQ49" s="5"/>
+      <c r="BR49" s="5"/>
+      <c r="BS49" s="5"/>
+      <c r="BT49" s="5"/>
+      <c r="BU49" s="5"/>
+      <c r="BV49" s="5"/>
+      <c r="BW49" s="5"/>
+      <c r="BX49" s="5"/>
+      <c r="BY49" s="5"/>
+      <c r="BZ49" s="5"/>
+      <c r="CA49" s="5"/>
+      <c r="CB49" s="5"/>
+      <c r="CC49" s="5"/>
+      <c r="CD49" s="5"/>
+      <c r="CE49" s="5"/>
+      <c r="CF49" s="5"/>
+      <c r="CG49" s="5"/>
+      <c r="CH49" s="5"/>
+      <c r="CI49" s="5"/>
+      <c r="CJ49" s="5"/>
+      <c r="CK49" s="5"/>
+      <c r="CL49" s="5"/>
+      <c r="CM49" s="5"/>
+      <c r="CN49" s="5"/>
+      <c r="CO49" s="5"/>
+      <c r="CP49" s="5"/>
+      <c r="CQ49" s="5"/>
+      <c r="CR49" s="5"/>
+      <c r="CS49" s="5"/>
+      <c r="CT49" s="5"/>
+      <c r="CU49" s="5"/>
+      <c r="CV49" s="5"/>
+      <c r="CW49" s="5"/>
+      <c r="CX49" s="5"/>
+      <c r="CY49" s="5"/>
+      <c r="CZ49" s="5"/>
+      <c r="DA49" s="5"/>
+      <c r="DB49" s="5"/>
+      <c r="DC49" s="5"/>
+      <c r="DD49" s="5"/>
+      <c r="DE49" s="5"/>
+      <c r="DF49" s="5"/>
+      <c r="DG49" s="5"/>
+      <c r="DH49" s="5"/>
+      <c r="DI49" s="5"/>
+      <c r="DJ49" s="5"/>
+      <c r="DK49" s="5"/>
+      <c r="DL49" s="5"/>
+      <c r="DM49" s="5"/>
+      <c r="DN49" s="5"/>
+      <c r="DO49" s="5"/>
+      <c r="DP49" s="5"/>
+      <c r="DQ49" s="5"/>
+      <c r="DR49" s="5"/>
+      <c r="DS49" s="5"/>
+      <c r="DT49" s="5"/>
+      <c r="DU49" s="5"/>
+      <c r="DV49" s="5"/>
+      <c r="DW49" s="5"/>
+      <c r="DX49" s="5"/>
+      <c r="DY49" s="5"/>
+      <c r="DZ49" s="5"/>
+      <c r="EA49" s="5"/>
+      <c r="EB49" s="5"/>
+      <c r="EC49" s="5"/>
+      <c r="ED49" s="5"/>
+      <c r="EE49" s="5"/>
+      <c r="EF49" s="5"/>
+      <c r="EG49" s="5"/>
+      <c r="EH49" s="5"/>
+      <c r="EI49" s="5"/>
+      <c r="EJ49" s="5"/>
+      <c r="EK49" s="5"/>
+      <c r="EL49" s="5"/>
+      <c r="EM49" s="5"/>
+      <c r="EN49" s="5"/>
+      <c r="EO49" s="5"/>
+      <c r="EP49" s="5"/>
+      <c r="EQ49" s="5"/>
+      <c r="ER49" s="5"/>
+      <c r="ES49" s="5"/>
+      <c r="ET49" s="5"/>
+      <c r="EU49" s="5"/>
+      <c r="EV49" s="5"/>
+      <c r="EW49" s="5"/>
+      <c r="EX49" s="5"/>
+      <c r="EY49" s="5"/>
+      <c r="EZ49" s="5"/>
+      <c r="FA49" s="5"/>
+      <c r="FB49" s="5"/>
+      <c r="FC49" s="5"/>
+      <c r="FD49" s="5"/>
+      <c r="FE49" s="5"/>
+      <c r="FF49" s="5"/>
+      <c r="FG49" s="5"/>
+      <c r="FH49" s="5"/>
+      <c r="FI49" s="5"/>
+      <c r="FJ49" s="5"/>
+      <c r="FK49" s="5"/>
+      <c r="FL49" s="5"/>
+    </row>
+    <row r="50" spans="1:173" x14ac:dyDescent="0.45">
+      <c r="A50" s="33"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="28"/>
+      <c r="BI50" s="4"/>
+      <c r="BJ50" s="4"/>
+      <c r="BK50" s="4"/>
+      <c r="BL50" s="4"/>
+      <c r="BM50" s="4"/>
+      <c r="BN50" s="4"/>
+      <c r="BO50" s="4"/>
+      <c r="BP50" s="4"/>
+      <c r="BQ50" s="4"/>
+      <c r="BR50" s="4"/>
+      <c r="BS50" s="4"/>
+      <c r="BT50" s="4"/>
+      <c r="BU50" s="4"/>
+      <c r="BV50" s="4"/>
+      <c r="BW50" s="4"/>
+      <c r="BX50" s="4"/>
+      <c r="BY50" s="4"/>
+      <c r="BZ50" s="4"/>
+      <c r="CA50" s="4"/>
+      <c r="CB50" s="4"/>
+      <c r="CC50" s="4"/>
+      <c r="CD50" s="4"/>
+      <c r="CE50" s="4"/>
+      <c r="CF50" s="4"/>
+      <c r="CG50" s="4"/>
+      <c r="CH50" s="4"/>
+      <c r="CI50" s="4"/>
+      <c r="CJ50" s="4"/>
+      <c r="CK50" s="4"/>
+      <c r="CL50" s="4"/>
+      <c r="CM50" s="4"/>
+      <c r="CN50" s="4"/>
+      <c r="CO50" s="4"/>
+      <c r="CP50" s="4"/>
+      <c r="CQ50" s="4"/>
+      <c r="CR50" s="4"/>
+      <c r="CS50" s="4"/>
+      <c r="CT50" s="4"/>
+      <c r="CU50" s="4"/>
+      <c r="CV50" s="4"/>
+      <c r="CW50" s="4"/>
+      <c r="CX50" s="4"/>
+      <c r="CY50" s="4"/>
+      <c r="CZ50" s="4"/>
+      <c r="DA50" s="4"/>
+      <c r="DB50" s="4"/>
+      <c r="DC50" s="4"/>
+      <c r="DD50" s="4"/>
+      <c r="DE50" s="4"/>
+      <c r="DF50" s="4"/>
+      <c r="DG50" s="4"/>
+      <c r="DH50" s="4"/>
+      <c r="DI50" s="4"/>
+      <c r="DJ50" s="4"/>
+      <c r="DK50" s="4"/>
+      <c r="DL50" s="4"/>
+      <c r="DM50" s="4"/>
+      <c r="DN50" s="4"/>
+      <c r="DO50" s="4"/>
+      <c r="DP50" s="4"/>
+      <c r="DQ50" s="4"/>
+      <c r="DR50" s="4"/>
+      <c r="DS50" s="4"/>
+      <c r="DT50" s="4"/>
+      <c r="DU50" s="4"/>
+      <c r="DV50" s="4"/>
+      <c r="DW50" s="4"/>
+      <c r="DX50" s="4"/>
+      <c r="DY50" s="4"/>
+      <c r="DZ50" s="4"/>
+      <c r="EA50" s="4"/>
+      <c r="EB50" s="4"/>
+      <c r="EC50" s="4"/>
+      <c r="ED50" s="4"/>
+      <c r="EE50" s="4"/>
+      <c r="EF50" s="4"/>
+      <c r="EG50" s="4"/>
+      <c r="EH50" s="4"/>
+      <c r="EI50" s="4"/>
+      <c r="EJ50" s="4"/>
+      <c r="EK50" s="4"/>
+      <c r="EL50" s="4"/>
+      <c r="EM50" s="4"/>
+      <c r="EN50" s="4"/>
+      <c r="EO50" s="4"/>
+      <c r="EP50" s="4"/>
+      <c r="EQ50" s="4"/>
+      <c r="ER50" s="4"/>
+      <c r="ES50" s="4"/>
+      <c r="ET50" s="4"/>
+      <c r="EU50" s="4"/>
+      <c r="EV50" s="4"/>
+      <c r="EW50" s="4"/>
+      <c r="EX50" s="4"/>
+      <c r="EY50" s="4"/>
+      <c r="EZ50" s="4"/>
+      <c r="FA50" s="4"/>
+      <c r="FB50" s="4"/>
+      <c r="FC50" s="4"/>
+      <c r="FD50" s="4"/>
+      <c r="FE50" s="4"/>
+      <c r="FF50" s="4"/>
+      <c r="FG50" s="4"/>
+      <c r="FH50" s="4"/>
+      <c r="FI50" s="4"/>
+      <c r="FJ50" s="4"/>
+      <c r="FK50" s="4"/>
+      <c r="FL50" s="4"/>
+      <c r="FM50" s="4"/>
+      <c r="FN50" s="4"/>
+      <c r="FO50" s="4"/>
+      <c r="FP50" s="4"/>
+    </row>
+    <row r="51" spans="1:173" x14ac:dyDescent="0.45">
+      <c r="A51" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="B51" s="50"/>
+      <c r="C51" s="50"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="50"/>
+      <c r="G51" s="50"/>
+      <c r="H51" s="50"/>
+      <c r="I51" s="50"/>
+      <c r="J51" s="50"/>
+      <c r="K51" s="50"/>
+      <c r="L51" s="50"/>
+      <c r="M51" s="50"/>
+      <c r="N51" s="50"/>
+      <c r="O51" s="50"/>
+      <c r="P51" s="50"/>
+      <c r="Q51" s="50"/>
+      <c r="R51" s="50"/>
+      <c r="S51" s="50"/>
+      <c r="T51" s="50"/>
+      <c r="U51" s="50"/>
+      <c r="V51" s="50"/>
+      <c r="W51" s="50"/>
+      <c r="X51" s="50"/>
+      <c r="Y51" s="50"/>
+      <c r="Z51" s="50"/>
+      <c r="AA51" s="50"/>
+      <c r="AB51" s="50"/>
+      <c r="AC51" s="50"/>
+      <c r="AD51" s="50"/>
+      <c r="AE51" s="50"/>
+      <c r="AF51" s="50"/>
+      <c r="AG51" s="50"/>
+      <c r="AH51" s="50"/>
+      <c r="AI51" s="50"/>
+      <c r="AJ51" s="50"/>
+      <c r="AK51" s="50"/>
+      <c r="AL51" s="50"/>
+      <c r="AM51" s="50"/>
+      <c r="AN51" s="50"/>
+      <c r="AO51" s="50"/>
+      <c r="AP51" s="50"/>
+      <c r="AQ51" s="50"/>
+      <c r="AR51" s="50"/>
+      <c r="AS51" s="50"/>
+      <c r="AT51" s="50"/>
+      <c r="AU51" s="50"/>
+      <c r="AV51" s="50"/>
+      <c r="AW51" s="50"/>
+      <c r="AX51" s="50"/>
+      <c r="AY51" s="50"/>
+      <c r="AZ51" s="50"/>
+      <c r="BA51" s="50"/>
+      <c r="BB51" s="50"/>
+      <c r="BC51" s="50"/>
+      <c r="BD51" s="50"/>
+      <c r="BE51" s="50"/>
+      <c r="BF51" s="50"/>
+      <c r="BG51" s="50"/>
+      <c r="BH51" s="50"/>
+      <c r="BI51" s="50"/>
+      <c r="BJ51" s="50"/>
+      <c r="BK51" s="50"/>
+      <c r="BL51" s="50"/>
+      <c r="BM51" s="50"/>
+      <c r="BN51" s="50"/>
+      <c r="BO51" s="50"/>
+      <c r="BP51" s="50"/>
+      <c r="BQ51" s="50"/>
+      <c r="BR51" s="50"/>
+      <c r="BS51" s="50"/>
+      <c r="BT51" s="50"/>
+      <c r="BU51" s="50"/>
+      <c r="BV51" s="50"/>
+      <c r="BW51" s="50"/>
+      <c r="BX51" s="50"/>
+      <c r="BY51" s="50"/>
+      <c r="BZ51" s="50"/>
+      <c r="CA51" s="50"/>
+      <c r="CB51" s="50"/>
+      <c r="CC51" s="50"/>
+      <c r="CD51" s="50"/>
+      <c r="CE51" s="50"/>
+      <c r="CF51" s="50"/>
+      <c r="CG51" s="50"/>
+      <c r="CH51" s="50"/>
+      <c r="CI51" s="50"/>
+      <c r="CJ51" s="50"/>
+      <c r="CK51" s="50"/>
+      <c r="CL51" s="50"/>
+      <c r="CM51" s="50"/>
+      <c r="CN51" s="50"/>
+      <c r="CO51" s="50"/>
+      <c r="CP51" s="50"/>
+      <c r="CQ51" s="50"/>
+      <c r="CR51" s="50"/>
+      <c r="CS51" s="50"/>
+      <c r="CT51" s="50"/>
+      <c r="CU51" s="50"/>
+      <c r="CV51" s="50"/>
+      <c r="CW51" s="50"/>
+      <c r="CX51" s="50"/>
+      <c r="CY51" s="50"/>
+      <c r="CZ51" s="50"/>
+      <c r="DA51" s="50"/>
+      <c r="DB51" s="50"/>
+      <c r="DC51" s="50"/>
+      <c r="DD51" s="50"/>
+      <c r="DE51" s="50"/>
+      <c r="DF51" s="50"/>
+      <c r="DG51" s="50"/>
+      <c r="DH51" s="50"/>
+      <c r="DI51" s="50"/>
+      <c r="DJ51" s="50"/>
+      <c r="DK51" s="50"/>
+      <c r="DL51" s="50"/>
+      <c r="DM51" s="50"/>
+      <c r="DN51" s="50"/>
+      <c r="DO51" s="50"/>
+      <c r="DP51" s="50"/>
+      <c r="DQ51" s="50"/>
+      <c r="DR51" s="50"/>
+      <c r="DS51" s="50"/>
+      <c r="DT51" s="50"/>
+      <c r="DU51" s="50"/>
+      <c r="DV51" s="50"/>
+      <c r="DW51" s="50"/>
+      <c r="DX51" s="50"/>
+      <c r="DY51" s="50"/>
+      <c r="DZ51" s="50"/>
+      <c r="EA51" s="50"/>
+      <c r="EB51" s="50"/>
+      <c r="EC51" s="50"/>
+      <c r="ED51" s="50"/>
+      <c r="EE51" s="50"/>
+      <c r="EF51" s="50"/>
+      <c r="EG51" s="50"/>
+      <c r="EH51" s="50"/>
+      <c r="EI51" s="50"/>
+      <c r="EJ51" s="50"/>
+      <c r="EK51" s="50"/>
+      <c r="EL51" s="50"/>
+      <c r="EM51" s="50"/>
+      <c r="EN51" s="50"/>
+      <c r="EO51" s="50"/>
+      <c r="EP51" s="50"/>
+      <c r="EQ51" s="50"/>
+      <c r="ER51" s="50"/>
+      <c r="ES51" s="50"/>
+      <c r="ET51" s="50"/>
+      <c r="EU51" s="50"/>
+      <c r="EV51" s="50"/>
+      <c r="EW51" s="50"/>
+      <c r="EX51" s="50"/>
+      <c r="EY51" s="50"/>
+      <c r="EZ51" s="50"/>
+      <c r="FA51" s="50"/>
+      <c r="FB51" s="50"/>
+      <c r="FC51" s="50"/>
+      <c r="FD51" s="50"/>
+      <c r="FE51" s="50"/>
+      <c r="FF51" s="50"/>
+      <c r="FG51" s="50"/>
+      <c r="FH51" s="50"/>
+      <c r="FI51" s="50"/>
+      <c r="FJ51" s="50"/>
+      <c r="FK51" s="50"/>
+      <c r="FL51" s="50"/>
+      <c r="FM51" s="50"/>
+      <c r="FN51" s="50"/>
+      <c r="FO51" s="50"/>
+      <c r="FP51" s="50"/>
+      <c r="FQ51" s="50"/>
+    </row>
+    <row r="52" spans="1:173" x14ac:dyDescent="0.45">
+      <c r="A52" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B52" s="23">
+        <v>45855</v>
+      </c>
+      <c r="C52" s="23">
+        <v>45857</v>
+      </c>
+      <c r="FG52" s="5"/>
+      <c r="FH52" s="5"/>
+      <c r="FI52" s="5"/>
+      <c r="FJ52" s="5"/>
+      <c r="FK52" s="5"/>
+    </row>
+    <row r="53" spans="1:173" x14ac:dyDescent="0.45">
+      <c r="A53" s="22"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
+      <c r="FL53" s="4"/>
+      <c r="FM53" s="4"/>
+      <c r="FN53" s="4"/>
+    </row>
+    <row r="54" spans="1:173" x14ac:dyDescent="0.45">
+      <c r="A54" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B54" s="23">
+        <v>45855</v>
+      </c>
+      <c r="C54" s="23">
+        <v>45857</v>
+      </c>
+      <c r="FG54" s="5"/>
+      <c r="FH54" s="5"/>
+      <c r="FI54" s="5"/>
+      <c r="FJ54" s="5"/>
+      <c r="FK54" s="5"/>
+    </row>
+    <row r="55" spans="1:173" x14ac:dyDescent="0.45">
+      <c r="A55" s="22"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
+      <c r="FL55" s="4"/>
+      <c r="FM55" s="4"/>
+      <c r="FN55" s="4"/>
+    </row>
+    <row r="56" spans="1:173" x14ac:dyDescent="0.45">
+      <c r="A56" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B56" s="23">
+        <v>45856</v>
+      </c>
+      <c r="C56" s="23">
+        <v>45857</v>
+      </c>
+      <c r="FI56" s="5"/>
+      <c r="FJ56" s="5"/>
+      <c r="FK56" s="5"/>
+      <c r="FL56" s="5"/>
+      <c r="FM56" s="5"/>
+    </row>
+    <row r="57" spans="1:173" x14ac:dyDescent="0.45">
+      <c r="A57" s="22"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="22"/>
+      <c r="FM57" s="4"/>
+      <c r="FN57" s="4"/>
+    </row>
+    <row r="58" spans="1:173" x14ac:dyDescent="0.45">
+      <c r="A58" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="B58" s="52"/>
+      <c r="C58" s="52"/>
+      <c r="D58" s="52"/>
+      <c r="E58" s="52"/>
+      <c r="F58" s="52"/>
+      <c r="G58" s="52"/>
+      <c r="H58" s="52"/>
+      <c r="I58" s="52"/>
+      <c r="J58" s="52"/>
+      <c r="K58" s="52"/>
+      <c r="L58" s="52"/>
+      <c r="M58" s="52"/>
+      <c r="N58" s="52"/>
+      <c r="O58" s="52"/>
+      <c r="P58" s="52"/>
+      <c r="Q58" s="52"/>
+      <c r="R58" s="52"/>
+      <c r="S58" s="52"/>
+      <c r="T58" s="52"/>
+      <c r="U58" s="52"/>
+      <c r="V58" s="52"/>
+      <c r="W58" s="52"/>
+      <c r="X58" s="52"/>
+      <c r="Y58" s="52"/>
+      <c r="Z58" s="52"/>
+      <c r="AA58" s="52"/>
+      <c r="AB58" s="52"/>
+      <c r="AC58" s="52"/>
+      <c r="AD58" s="52"/>
+      <c r="AE58" s="52"/>
+      <c r="AF58" s="52"/>
+      <c r="AG58" s="52"/>
+      <c r="AH58" s="52"/>
+      <c r="AI58" s="52"/>
+      <c r="AJ58" s="52"/>
+      <c r="AK58" s="52"/>
+      <c r="AL58" s="52"/>
+      <c r="AM58" s="52"/>
+      <c r="AN58" s="52"/>
+      <c r="AO58" s="52"/>
+      <c r="AP58" s="52"/>
+      <c r="AQ58" s="52"/>
+      <c r="AR58" s="52"/>
+      <c r="AS58" s="52"/>
+      <c r="AT58" s="52"/>
+      <c r="AU58" s="52"/>
+      <c r="AV58" s="52"/>
+      <c r="AW58" s="52"/>
+      <c r="AX58" s="52"/>
+      <c r="AY58" s="52"/>
+      <c r="AZ58" s="52"/>
+      <c r="BA58" s="52"/>
+      <c r="BB58" s="52"/>
+      <c r="BC58" s="52"/>
+      <c r="BD58" s="52"/>
+      <c r="BE58" s="52"/>
+      <c r="BF58" s="52"/>
+      <c r="BG58" s="52"/>
+      <c r="BH58" s="52"/>
+      <c r="BI58" s="52"/>
+      <c r="BJ58" s="52"/>
+      <c r="BK58" s="52"/>
+      <c r="BL58" s="52"/>
+      <c r="BM58" s="52"/>
+      <c r="BN58" s="52"/>
+      <c r="BO58" s="52"/>
+      <c r="BP58" s="52"/>
+      <c r="BQ58" s="52"/>
+      <c r="BR58" s="52"/>
+      <c r="BS58" s="52"/>
+      <c r="BT58" s="52"/>
+      <c r="BU58" s="52"/>
+      <c r="BV58" s="52"/>
+      <c r="BW58" s="52"/>
+      <c r="BX58" s="52"/>
+      <c r="BY58" s="52"/>
+      <c r="BZ58" s="52"/>
+      <c r="CA58" s="52"/>
+      <c r="CB58" s="52"/>
+      <c r="CC58" s="52"/>
+      <c r="CD58" s="52"/>
+      <c r="CE58" s="52"/>
+      <c r="CF58" s="52"/>
+      <c r="CG58" s="52"/>
+      <c r="CH58" s="52"/>
+      <c r="CI58" s="52"/>
+      <c r="CJ58" s="52"/>
+      <c r="CK58" s="52"/>
+      <c r="CL58" s="52"/>
+      <c r="CM58" s="52"/>
+      <c r="CN58" s="52"/>
+      <c r="CO58" s="52"/>
+      <c r="CP58" s="52"/>
+      <c r="CQ58" s="52"/>
+      <c r="CR58" s="52"/>
+      <c r="CS58" s="52"/>
+      <c r="CT58" s="52"/>
+      <c r="CU58" s="52"/>
+      <c r="CV58" s="52"/>
+      <c r="CW58" s="52"/>
+      <c r="CX58" s="52"/>
+      <c r="CY58" s="52"/>
+      <c r="CZ58" s="52"/>
+      <c r="DA58" s="52"/>
+      <c r="DB58" s="52"/>
+      <c r="DC58" s="52"/>
+      <c r="DD58" s="52"/>
+      <c r="DE58" s="52"/>
+      <c r="DF58" s="52"/>
+      <c r="DG58" s="52"/>
+      <c r="DH58" s="52"/>
+      <c r="DI58" s="52"/>
+      <c r="DJ58" s="52"/>
+      <c r="DK58" s="52"/>
+      <c r="DL58" s="52"/>
+      <c r="DM58" s="52"/>
+      <c r="DN58" s="52"/>
+      <c r="DO58" s="52"/>
+      <c r="DP58" s="52"/>
+      <c r="DQ58" s="52"/>
+      <c r="DR58" s="52"/>
+      <c r="DS58" s="52"/>
+      <c r="DT58" s="52"/>
+      <c r="DU58" s="52"/>
+      <c r="DV58" s="52"/>
+      <c r="DW58" s="52"/>
+      <c r="DX58" s="52"/>
+      <c r="DY58" s="52"/>
+      <c r="DZ58" s="52"/>
+      <c r="EA58" s="52"/>
+      <c r="EB58" s="52"/>
+      <c r="EC58" s="52"/>
+      <c r="ED58" s="52"/>
+      <c r="EE58" s="52"/>
+      <c r="EF58" s="52"/>
+      <c r="EG58" s="52"/>
+      <c r="EH58" s="52"/>
+      <c r="EI58" s="52"/>
+      <c r="EJ58" s="52"/>
+      <c r="EK58" s="52"/>
+      <c r="EL58" s="52"/>
+      <c r="EM58" s="52"/>
+      <c r="EN58" s="52"/>
+      <c r="EO58" s="52"/>
+      <c r="EP58" s="52"/>
+      <c r="EQ58" s="52"/>
+      <c r="ER58" s="52"/>
+      <c r="ES58" s="52"/>
+      <c r="ET58" s="52"/>
+      <c r="EU58" s="52"/>
+      <c r="EV58" s="52"/>
+      <c r="EW58" s="52"/>
+      <c r="EX58" s="52"/>
+      <c r="EY58" s="52"/>
+      <c r="EZ58" s="52"/>
+      <c r="FA58" s="52"/>
+      <c r="FB58" s="52"/>
+      <c r="FC58" s="52"/>
+      <c r="FD58" s="52"/>
+      <c r="FE58" s="52"/>
+      <c r="FF58" s="52"/>
+      <c r="FG58" s="52"/>
+      <c r="FH58" s="52"/>
+      <c r="FI58" s="52"/>
+      <c r="FJ58" s="52"/>
+      <c r="FK58" s="52"/>
+      <c r="FL58" s="52"/>
+      <c r="FM58" s="52"/>
+      <c r="FN58" s="52"/>
+      <c r="FO58" s="52"/>
+      <c r="FP58" s="52"/>
+      <c r="FQ58" s="52"/>
+    </row>
+    <row r="59" spans="1:173" x14ac:dyDescent="0.45">
+      <c r="A59" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B59" s="23">
         <v>45859</v>
       </c>
-    </row>
-    <row r="48" spans="1:87" x14ac:dyDescent="0.45">
-      <c r="A48" s="28"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A49" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" s="24">
-        <v>45748</v>
-      </c>
-      <c r="C49" s="24">
+      <c r="C59" s="23">
         <v>45859</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A50" s="30"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="25"/>
+      <c r="FN59" s="5"/>
+      <c r="FO59" s="5"/>
+      <c r="FP59" s="5"/>
+    </row>
+    <row r="60" spans="1:173" x14ac:dyDescent="0.45">
+      <c r="A60" s="22"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="22"/>
+      <c r="FP60" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="68">
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
+  <mergeCells count="93">
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="FB3:FH3"/>
+    <mergeCell ref="FI3:FO3"/>
+    <mergeCell ref="FE44:FF44"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="DS3:DY3"/>
+    <mergeCell ref="DZ3:EF3"/>
+    <mergeCell ref="EG3:EM3"/>
+    <mergeCell ref="EN3:ET3"/>
+    <mergeCell ref="EU3:FA3"/>
+    <mergeCell ref="CJ3:CP3"/>
+    <mergeCell ref="CQ3:CW3"/>
+    <mergeCell ref="CX3:DD3"/>
+    <mergeCell ref="DE3:DK3"/>
+    <mergeCell ref="DL3:DR3"/>
+    <mergeCell ref="BO3:BU3"/>
+    <mergeCell ref="BV3:CB3"/>
+    <mergeCell ref="CC3:CI3"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="Y3:AE3"/>
+    <mergeCell ref="AF3:AL3"/>
+    <mergeCell ref="AM3:AS3"/>
+    <mergeCell ref="R3:X3"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="K3:Q3"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="AT3:AZ3"/>
+    <mergeCell ref="BA3:BG3"/>
+    <mergeCell ref="BH3:BN3"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
     <mergeCell ref="A1:Q2"/>
     <mergeCell ref="A36:A37"/>
     <mergeCell ref="B31:B32"/>
@@ -2448,39 +5303,25 @@
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="AT3:AZ3"/>
-    <mergeCell ref="BA3:BG3"/>
-    <mergeCell ref="BH3:BN3"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="BO3:BU3"/>
-    <mergeCell ref="BV3:CB3"/>
-    <mergeCell ref="CC3:CI3"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="Y3:AE3"/>
-    <mergeCell ref="AF3:AL3"/>
-    <mergeCell ref="AM3:AS3"/>
-    <mergeCell ref="R3:X3"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="K3:Q3"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
